--- a/勝又自作Attended_Framework_拡張v1/Data/Config.xlsx
+++ b/勝又自作Attended_Framework_拡張v1/Data/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="1710" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="1710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="説明" sheetId="5" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="125">
   <si>
     <t>Name</t>
   </si>
@@ -98,9 +98,6 @@
     <t>This is a logging field which allows you to group the log data of two or more subprocesses under the same business process name</t>
   </si>
   <si>
-    <t>Enable_Screenshot</t>
-  </si>
-  <si>
     <t>AttendedFramework</t>
   </si>
   <si>
@@ -135,18 +132,18 @@
   </si>
   <si>
     <t>環境</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ログ_テキストv1_テキストパス</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ログ_テキストv1_テキスト出力レベルリミット</t>
     <rPh sb="14" eb="16">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ログ_テキストv1_セクション開始文字列</t>
@@ -156,7 +153,7 @@
     <rPh sb="17" eb="20">
       <t>モジレツ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ログ_テキストv1_セクション終了文字列</t>
@@ -166,15 +163,15 @@
     <rPh sb="17" eb="20">
       <t>モジレツ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>--- %セクション% の実行を開始しました ---</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>--- %セクション% の実行を終了しました ---</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>今，エラーを検知：</t>
@@ -184,33 +181,33 @@
     <rPh sb="6" eb="8">
       <t>ケンチ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>今，ビズ例外を検知：</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>エラーを即時スローします。</t>
     <rPh sb="4" eb="6">
       <t>ソクジ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>エラーをスキップします。</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ログ_テキストv1_動作：エラースキップ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ログ_テキストv1_動作：エラー記憶</t>
     <rPh sb="16" eb="18">
       <t>キオク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>エラーを記憶し続行します。</t>
@@ -220,14 +217,14 @@
     <rPh sb="7" eb="9">
       <t>ゾッコウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ログ_テキストv1_Nowエラー検知</t>
     <rPh sb="16" eb="18">
       <t>ケンチ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ログ_テキストv1_Nowビズ例外検知</t>
@@ -237,7 +234,7 @@
     <rPh sb="17" eb="19">
       <t>ケンチ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ログ_テキストv1_セクション中エラー存在通知</t>
@@ -247,7 +244,7 @@
     <rPh sb="19" eb="21">
       <t>ソンザイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ログ_テキストv1_セクション中ビズ例外存在通知</t>
@@ -257,11 +254,11 @@
     <rPh sb="20" eb="22">
       <t>ソンザイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>--- %セクション% の実行を終了しました（エラースロー） ---</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>--- %セクション% 中にエラーが存在していました ---</t>
@@ -271,7 +268,7 @@
     <rPh sb="18" eb="20">
       <t>ソンザイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>--- %セクション% 中にビズ例外が存在していました ---</t>
@@ -281,11 +278,11 @@
     <rPh sb="19" eb="21">
       <t>ソンザイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ログ_テキストv1_セクション終了エラースロー</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>ログ_テキストv1_動作：エラー即スロー</t>
@@ -295,7 +292,7 @@
     <rPh sb="16" eb="17">
       <t>ソク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>1以上の整数を設定する。
@@ -315,7 +312,7 @@
     <rPh sb="56" eb="58">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>testasset</t>
@@ -325,7 +322,7 @@
     <rPh sb="4" eb="6">
       <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -345,7 +342,7 @@
     <rPh sb="13" eb="15">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>設定情報各シート</t>
@@ -358,15 +355,15 @@
     <rPh sb="4" eb="5">
       <t>カク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>テストName</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>テストValue</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -444,7 +441,7 @@
     <rPh sb="65" eb="66">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -494,7 +491,7 @@
     <rPh sb="51" eb="53">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -581,14 +578,14 @@
     <rPh sb="64" eb="66">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>環境テスト</t>
     <rPh sb="0" eb="2">
       <t>カンキョウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>このシートはパス情報（ファイルやフォルダ）の環境依存解消機能を提供します。</t>
@@ -598,22 +595,22 @@
   </si>
   <si>
     <t>%GetCurrentDirectory%\Data\サンプルRPAワーク\PARAM\Credentials.xlsx</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Parameters_xlsx_パス</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>（Valueの文字列に含まれる"%XXX%"形式のキーワードを環境に応じた実際のフォルダパスに自動変換）</t>
     <rPh sb="37" eb="39">
       <t>ジッサイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>%GetCurrentDirectory%\Data\サンプルRPAワーク\Debug.txt</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -719,7 +716,7 @@
     <rPh sb="78" eb="80">
       <t>カクノウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <r>
@@ -788,23 +785,19 @@
     <rPh sb="46" eb="48">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>%GetCurrentDirectory%\Data\サンプルRPAワーク\PARAM\Parameters.xlsx</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>プロセス実行毎アウトプットフォルダ</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>スタートDateTime</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>%GetCurrentDirectory%\Data\サンプルRPAワーク\プロセス実行毎アウトプット</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>※ロボットプロセス完成時はプロジェクトフォルダの外部（MyDocumentsの配下等）に配置する運用を想定しています。</t>
@@ -829,7 +822,7 @@
     <rPh sb="51" eb="53">
       <t>ソウテイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>＝＝＝　（必要に応じて利用してください）　資格情報一括取得，パラメタ情報一括取得　＝＝＝</t>
@@ -863,7 +856,7 @@
     <rPh sb="38" eb="40">
       <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>＝＝＝　（必要に応じて利用してください）　プロセス実行毎アウトプットフォルダの生成場所。実行時に値が"\YYYYMMDD_HHMM"付きに変化します。　＝＝＝</t>
@@ -888,11 +881,11 @@
     <rPh sb="69" eb="71">
       <t>ヘンカ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>＝＝＝　（以下，UOCで適宜追加してください）　＝＝＝</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>※プロジェクトフォルダ外に配置すべき資格情報一括取得用Excel，パラメタ情報一括取得用Excelは，別のExcelファイル，別の辞書型変数を準備しています。</t>
@@ -926,7 +919,7 @@
     <rPh sb="71" eb="73">
       <t>ジュンビ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>Valueは実行時にプロセススタート時間を反映。</t>
@@ -936,15 +929,15 @@
     <rPh sb="8" eb="9">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>&lt;DesktopDirectory&gt;%DesktopDirectory%　&lt;MyDocuments&gt;%MyDocuments%　&lt;MyPictures&gt;%MyPictures%　&lt;UserProfile&gt;%UserProfile%　&lt;GetCurrentDirectory&gt;%GetCurrentDirectory%</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>%GetCurrentDirectory%\Data\サンプルRPAワーク\ExScreenshots</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>特殊ディレクトリパスのテスト出力用です。RPA開発では使用しません。</t>
@@ -960,18 +953,337 @@
     <rPh sb="27" eb="29">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(v202103xx Release) TRUE or FALSE　：　TRUEの場合は出力します。</t>
+    <rPh sb="44" eb="46">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>EndSmtpSend_サーバー</t>
+  </si>
+  <si>
+    <t>EndSmtpSend_ポート番号</t>
+  </si>
+  <si>
+    <t>EndSmtpSend_CredentialsKeyパスワード</t>
+  </si>
+  <si>
+    <t>EndSmtpSend_件名_Normal</t>
+  </si>
+  <si>
+    <t>EndSmtpSend_件名_Exception</t>
+  </si>
+  <si>
+    <t>EndSmtpSend_本文_Normal</t>
+  </si>
+  <si>
+    <t>EndSmtpSend_To_Normal</t>
+  </si>
+  <si>
+    <t>EndSmtpSend_Cc_Normal</t>
+  </si>
+  <si>
+    <t>EndSmtpSend_Bcc_Normal</t>
+  </si>
+  <si>
+    <t>EndSmtpSend_本文_Exception</t>
+  </si>
+  <si>
+    <t>EndSmtpSend_To_Exception</t>
+  </si>
+  <si>
+    <t>EndSmtpSend_Cc_Exception</t>
+  </si>
+  <si>
+    <t>EndSmtpSend_Bcc_Exception</t>
+  </si>
+  <si>
+    <t>＜○正常終了＞EndTimeStamp【eYMDhms】(Start【sYMDhms】).txt</t>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>＜★異常終了！：詳細はログ参照＞EndTimeStamp【eYMDhms】(Start【sYMDhms】).txt</t>
+    <rPh sb="2" eb="6">
+      <t>イジョウシュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(v202103xx Release) MainProcess.xamlがNormal終了の場合。文字列中 "【eYMDhms】"・"【sYMDhms】" は開始・終了YYYYMMDD_hhmmss形式タイムスタンプにReplaceします。想定されるワーニング等を反映したい場合はMainProcess.xaml側で本dictionaryのValueを更新してください。</t>
+    <rPh sb="43" eb="45">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(v202103xx Release)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>＜○正常終了＞ ロボット名</t>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>＜★異常終了！＞ ロボット名</t>
+    <rPh sb="2" eb="6">
+      <t>イジョウシュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プロセス実行毎アウトプットフォルダ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>正常終了。
+【アウトプットフォルダ】</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>詳細はログ参照。
+【エクセプション情報】</t>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(v202103xx Release) "【アウトプットフォルダ】"は「プロセス実行毎アウトプットフォルダ」値にReplaceします。</t>
+    <rPh sb="54" eb="55">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(v202103xx Release) "【エクセプション情報】"はエクセプション情報にReplaceします。</t>
+    <rPh sb="41" eb="43">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>EndSmtpSend_CredentialsKeyメールアカウント</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>587</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>mail.biglobe.ne.jp</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>EndSmtpSendメールアカウント</t>
+  </si>
+  <si>
+    <t>EndSmtpSendパスワード</t>
+  </si>
+  <si>
+    <t>Enable_Screenshot</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>EndSmtpSend_Enable_Normal</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>EndSmtpSend_Enable_Exception</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>TimeStampFile_Enable_End_Exception</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>TimeStampFile_Enable_Start</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>TimeStampFile_ファイル名_Start</t>
+    <rPh sb="18" eb="19">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>TimeStampFile_Enable_End_Normal</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>TimeStampFile_ファイル名_End_Normal</t>
+    <rPh sb="18" eb="19">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>TimeStampFile_ファイル名_End_Exception</t>
+    <rPh sb="18" eb="19">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>StartTimeStamp【sYMDhms】.txt</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>TimeStampFile_Enable_Start_Delete</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(v202103xx Release) TRUE or FALSE　：　TRUEの場合は終了時にStartTimeStampFileを削除します。</t>
+    <rPh sb="44" eb="47">
+      <t>シュウリョウジ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(v202103xx Release) MainProcess.xamlがNormal終了の場合。文字列中 "【sYMDhms】" は開始YYYYMMDD_hhmmss形式タイムスタンプにReplaceします。想定されるワーニング等を反映したい場合はMainProcess.xaml側で本dictionaryのValueを更新してください。</t>
+    <rPh sb="43" eb="45">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(v202103xx Release) MainProcess.xamlがException終了の場合。同上。</t>
+    <rPh sb="46" eb="48">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>xxx@docomo.ne.jp</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1063,12 +1375,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1082,52 +1400,70 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1"/>
@@ -1487,7 +1823,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1507,67 +1843,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="7"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>57</v>
+        <v>23</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>58</v>
+        <v>24</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7" t="s">
-        <v>68</v>
+      <c r="A11" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1575,16 +1911,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z995"/>
+  <dimension ref="A1:Z1019"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" customWidth="1"/>
     <col min="3" max="3" width="68.5703125" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -1629,7 +1965,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -1637,43 +1973,269 @@
     </row>
     <row r="4" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" s="2" customFormat="1" ht="40.5">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="b">
+      <c r="A5" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>23</v>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" s="18" customFormat="1" ht="13.5">
+      <c r="A7" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="18" customFormat="1" ht="13.5">
+      <c r="A8" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="18" customFormat="1" ht="13.5">
+      <c r="A9" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="18" customFormat="1" ht="13.5">
+      <c r="A10" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="18" customFormat="1" ht="13.5">
+      <c r="A11" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="18" customFormat="1" ht="13.5">
+      <c r="A12" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="18" customFormat="1" ht="13.5">
+      <c r="A13" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+    </row>
+    <row r="15" spans="1:26" s="18" customFormat="1" ht="13.5">
+      <c r="A15" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="18" customFormat="1" ht="13.5">
+      <c r="A16" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A17" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A18" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A19" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A20" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A21" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A22" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="18" customFormat="1" ht="27">
+      <c r="A23" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="18" customFormat="1" ht="27">
+      <c r="A24" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A25" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A26" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A27" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A28" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A29" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A30" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="2" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2637,8 +3199,32 @@
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
+    <row r="1002" ht="14.25" customHeight="1"/>
+    <row r="1003" ht="14.25" customHeight="1"/>
+    <row r="1004" ht="14.25" customHeight="1"/>
+    <row r="1005" ht="14.25" customHeight="1"/>
+    <row r="1006" ht="14.25" customHeight="1"/>
+    <row r="1007" ht="14.25" customHeight="1"/>
+    <row r="1008" ht="14.25" customHeight="1"/>
+    <row r="1009" ht="14.25" customHeight="1"/>
+    <row r="1010" ht="14.25" customHeight="1"/>
+    <row r="1011" ht="14.25" customHeight="1"/>
+    <row r="1012" ht="14.25" customHeight="1"/>
+    <row r="1013" ht="14.25" customHeight="1"/>
+    <row r="1014" ht="14.25" customHeight="1"/>
+    <row r="1015" ht="14.25" customHeight="1"/>
+    <row r="1016" ht="14.25" customHeight="1"/>
+    <row r="1017" ht="14.25" customHeight="1"/>
+    <row r="1018" ht="14.25" customHeight="1"/>
+    <row r="1019" ht="14.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2731,25 +3317,25 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -3740,7 +4326,7 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3793,11 +4379,11 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>52</v>
+      <c r="A2" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
@@ -4799,7 +5385,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4808,251 +5394,251 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="77.85546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="63.5703125" style="12" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" style="9" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="9"/>
+    <col min="1" max="1" width="44.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="77.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="63.5703125" style="11" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" style="8" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
     </row>
     <row r="2" spans="1:26" ht="15">
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:26" ht="15">
+      <c r="C3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:26" ht="15">
+      <c r="C4" s="12"/>
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" customFormat="1" ht="15">
+      <c r="A6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="67.5">
+      <c r="A8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D2"/>
-    </row>
-    <row r="3" spans="1:26" ht="15">
-      <c r="C3" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3"/>
-    </row>
-    <row r="4" spans="1:26" ht="15">
-      <c r="C4" s="13"/>
-      <c r="D4"/>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="12" t="s">
+      <c r="B26" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" customFormat="1" ht="15">
-      <c r="A6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="13" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="67.5">
-      <c r="A8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="12">
-        <v>1</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="17" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="B30" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="B34" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
     <row r="35" spans="1:3" ht="40.5">
-      <c r="A35" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="18" t="s">
+      <c r="A35" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>81</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5069,54 +5655,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="52.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="82.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="91.140625" style="9" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" style="9" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="9"/>
+    <col min="1" max="1" width="52.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="82.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="91.140625" style="8" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" style="8" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -6102,7 +6688,7 @@
     <row r="984" ht="14.25" customHeight="1"/>
     <row r="985" ht="14.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/勝又自作Attended_Framework_拡張v1/Data/Config.xlsx
+++ b/勝又自作Attended_Framework_拡張v1/Data/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="1710" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="1710"/>
   </bookViews>
   <sheets>
     <sheet name="説明" sheetId="5" r:id="rId1"/>
@@ -18,40 +18,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>FJ-USER</author>
-  </authors>
-  <commentList>
-    <comment ref="C3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>以下のキーワードを実際のパスに自動変換します。
-　特殊ディレクトリ（Environment.SpecialFolder列挙体）：
-　　%DesktopDirectory%
-　　%MyDocuments%
-　　%MyPictures%
-　　%UserProfile%
-　実行時のカレントフォルダ
-　　%GetCurrentDirectory%</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="132">
   <si>
     <t>Name</t>
   </si>
@@ -888,40 +856,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>※プロジェクトフォルダ外に配置すべき資格情報一括取得用Excel，パラメタ情報一括取得用Excelは，別のExcelファイル，別の辞書型変数を準備しています。</t>
-    <rPh sb="11" eb="12">
-      <t>ガイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ジショ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ジュンビ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>Valueは実行時にプロセススタート時間を反映。</t>
     <rPh sb="6" eb="8">
       <t>ジッコウ</t>
@@ -1264,6 +1198,197 @@
   </si>
   <si>
     <t>xxx@docomo.ne.jp</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　※規定値ではプロジェクトフォルダ内Dataフォルダに配置された Config.xlsx を自動取得しますが，</t>
+    <rPh sb="2" eb="5">
+      <t>キテイチ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="46" eb="50">
+      <t>ジドウシュトク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　引数にパスを指定することで Config.xlsx をプロジェクトフォルダ外に配置することも可能です。</t>
+    <rPh sb="2" eb="4">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　※Config.xlsx とは別に，資格情報一括取得用Excel(Credentials.xlsx)，パラメタ情報一括取得用Excel(Parameters.xlsx)に定義した設定情報を自動取得し，</t>
+    <rPh sb="16" eb="17">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　辞書型変数データ格納する機能もサポートしています。</t>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>Framework</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>デフォルトで読み込み対象です。（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Attended_FrameWork</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>オリジナル機能，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Attended_Framework_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>拡張</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">v1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の拡張機能で使用）</t>
+    </r>
+    <rPh sb="15" eb="16">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>注意事項等</t>
+    <rPh sb="0" eb="4">
+      <t>チュウイジコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・セルのメモ(コメント)機能を使わないでください。　※UiPathのExcelワークシート操作のアクティビティで問題が発生する可能性がある為。</t>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="63" eb="66">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>＝＝＝　（ここまでは，Attended_Framework_拡張v1 がサポートする機能で使用する設定項目）　＝＝＝</t>
+    <rPh sb="45" eb="47">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>コウモク</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1271,7 +1396,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1366,14 +1491,6 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1404,7 +1521,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1464,6 +1581,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1"/>
@@ -1483,6 +1601,221 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="線吹き出し 1 (枠付き) 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13301383" y="1512794"/>
+          <a:ext cx="3709146" cy="1692088"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2017"/>
+            <a:gd name="adj2" fmla="val -681"/>
+            <a:gd name="adj3" fmla="val -55050"/>
+            <a:gd name="adj4" fmla="val -46490"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>以下のキーワードを実際のパスに自動変換します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　特殊ディレクトリ（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Environment.SpecialFolder</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>列挙体）：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>%DesktopDirectory%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>%MyDocuments%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>%MyPictures%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>%UserProfile%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　実行時のカレントフォルダ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>%GetCurrentDirectory%</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1823,7 +2156,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1831,9 +2164,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1848,58 +2181,92 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="5" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="27"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B13" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="6" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1913,8 +2280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1974,7 +2341,7 @@
     <row r="4" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" s="2" customFormat="1" ht="40.5">
       <c r="A5" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -1986,79 +2353,79 @@
     <row r="6" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" s="18" customFormat="1" ht="13.5">
       <c r="A7" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="19" t="b">
         <v>1</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="18" customFormat="1" ht="13.5">
       <c r="A8" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="19" t="b">
         <v>1</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="18" customFormat="1" ht="13.5">
       <c r="A9" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" s="19" t="b">
         <v>1</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="18" customFormat="1" ht="13.5">
       <c r="A10" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="19" t="b">
         <v>1</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="18" customFormat="1" ht="13.5">
       <c r="A11" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="18" customFormat="1" ht="13.5">
       <c r="A12" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="18" customFormat="1" ht="13.5">
       <c r="A13" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1">
@@ -2068,190 +2435,202 @@
     </row>
     <row r="15" spans="1:26" s="18" customFormat="1" ht="13.5">
       <c r="A15" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="19" t="b">
         <v>0</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="18" customFormat="1" ht="13.5">
       <c r="A16" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" s="19" t="b">
         <v>0</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A17" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A18" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A19" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A20" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A21" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A22" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="18" customFormat="1" ht="27">
       <c r="A23" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="18" customFormat="1" ht="27">
       <c r="A24" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A25" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A26" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A27" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A28" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A29" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A30" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="2" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" s="8" customFormat="1" ht="13.5">
+      <c r="A32" s="11"/>
+      <c r="B32" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="34" spans="1:3" s="8" customFormat="1" ht="13.5">
+      <c r="A34" s="11"/>
+      <c r="B34" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="11"/>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -5391,11 +5770,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="13.5"/>
@@ -5462,7 +5841,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:26" customFormat="1" ht="15">
@@ -5470,7 +5849,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>12</v>
@@ -5612,7 +5991,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>70</v>
@@ -5621,27 +6000,32 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="B34" s="16" t="s">
+    <row r="33" spans="1:3">
+      <c r="B33" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="40.5">
-      <c r="A35" s="11" t="s">
+    <row r="36" spans="1:3" ht="40.5">
+      <c r="A36" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>79</v>
+      <c r="B36" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/勝又自作Attended_Framework_拡張v1/Data/Config.xlsx
+++ b/勝又自作Attended_Framework_拡張v1/Data/Config.xlsx
@@ -890,13 +890,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>(v202103xx Release) TRUE or FALSE　：　TRUEの場合は出力します。</t>
-    <rPh sb="44" eb="46">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>EndSmtpSend_サーバー</t>
   </si>
   <si>
@@ -953,56 +946,6 @@
     <rPh sb="13" eb="15">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>(v202103xx Release) MainProcess.xamlがNormal終了の場合。文字列中 "【eYMDhms】"・"【sYMDhms】" は開始・終了YYYYMMDD_hhmmss形式タイムスタンプにReplaceします。想定されるワーニング等を反映したい場合はMainProcess.xaml側で本dictionaryのValueを更新してください。</t>
-    <rPh sb="43" eb="45">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="130" eb="131">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="137" eb="139">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="156" eb="157">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="158" eb="159">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="176" eb="178">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>(v202103xx Release)</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -1046,20 +989,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>(v202103xx Release) "【アウトプットフォルダ】"は「プロセス実行毎アウトプットフォルダ」値にReplaceします。</t>
-    <rPh sb="54" eb="55">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>(v202103xx Release) "【エクセプション情報】"はエクセプション情報にReplaceします。</t>
-    <rPh sb="41" eb="43">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>EndSmtpSend_CredentialsKeyメールアカウント</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1128,72 +1057,6 @@
   </si>
   <si>
     <t>TimeStampFile_Enable_Start_Delete</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>(v202103xx Release) TRUE or FALSE　：　TRUEの場合は終了時にStartTimeStampFileを削除します。</t>
-    <rPh sb="44" eb="47">
-      <t>シュウリョウジ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>(v202103xx Release) MainProcess.xamlがNormal終了の場合。文字列中 "【sYMDhms】" は開始YYYYMMDD_hhmmss形式タイムスタンプにReplaceします。想定されるワーニング等を反映したい場合はMainProcess.xaml側で本dictionaryのValueを更新してください。</t>
-    <rPh sb="43" eb="45">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="141" eb="142">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="143" eb="144">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="161" eb="163">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>(v202103xx Release) MainProcess.xamlがException終了の場合。同上。</t>
-    <rPh sb="46" eb="48">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ドウジョウ</t>
-    </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -1354,31 +1217,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>・セルのメモ(コメント)機能を使わないでください。　※UiPathのExcelワークシート操作のアクティビティで問題が発生する可能性がある為。</t>
-    <rPh sb="12" eb="14">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="63" eb="66">
-      <t>カノウセイ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>タメ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>＝＝＝　（ここまでは，Attended_Framework_拡張v1 がサポートする機能で使用する設定項目）　＝＝＝</t>
     <rPh sb="45" eb="47">
       <t>シヨウ</t>
@@ -1388,6 +1226,170 @@
     </rPh>
     <rPh sb="51" eb="53">
       <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(v20210314 Release) TRUE or FALSE　：　TRUEの場合は出力します。</t>
+    <rPh sb="44" eb="46">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(v20210314 Release) TRUE or FALSE　：　TRUEの場合は終了時にStartTimeStampFileを削除します。</t>
+    <rPh sb="44" eb="47">
+      <t>シュウリョウジ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(v20210314 Release) MainProcess.xamlがNormal終了の場合。文字列中 "【sYMDhms】" は開始YYYYMMDD_hhmmss形式タイムスタンプにReplaceします。想定されるワーニング等を反映したい場合はMainProcess.xaml側で本dictionaryのValueを更新してください。</t>
+    <rPh sb="43" eb="45">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(v20210314 Release) MainProcess.xamlがNormal終了の場合。文字列中 "【eYMDhms】"・"【sYMDhms】" は開始・終了YYYYMMDD_hhmmss形式タイムスタンプにReplaceします。想定されるワーニング等を反映したい場合はMainProcess.xaml側で本dictionaryのValueを更新してください。</t>
+    <rPh sb="43" eb="45">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(v20210314 Release) MainProcess.xamlがException終了の場合。同上。</t>
+    <rPh sb="46" eb="48">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(v20210314 Release)</t>
+  </si>
+  <si>
+    <t>(v20210314 Release) "【アウトプットフォルダ】"は「プロセス実行毎アウトプットフォルダ」値にReplaceします。</t>
+    <rPh sb="54" eb="55">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(v20210314 Release) "【エクセプション情報】"はエクセプション情報にReplaceします。</t>
+    <rPh sb="41" eb="43">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・Config.xlsx 内ではセルのメモ(コメント)機能を使わないでください。　※UiPathのExcelワークシート操作のアクティビティで問題が発生する可能性がある為。</t>
+    <rPh sb="13" eb="14">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="78" eb="81">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>タメ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1604,16 +1606,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>313765</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>313766</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>526676</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1622,15 +1624,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13301383" y="1512794"/>
-          <a:ext cx="3709146" cy="1692088"/>
+          <a:off x="15049501" y="179294"/>
+          <a:ext cx="3709146" cy="1680882"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
             <a:gd name="adj1" fmla="val 2017"/>
             <a:gd name="adj2" fmla="val -681"/>
-            <a:gd name="adj3" fmla="val -55050"/>
-            <a:gd name="adj4" fmla="val -46490"/>
+            <a:gd name="adj3" fmla="val 19233"/>
+            <a:gd name="adj4" fmla="val -28363"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -2167,7 +2169,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2190,22 +2192,22 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2235,7 +2237,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2261,12 +2263,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="27" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2278,15 +2280,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1019"/>
+  <dimension ref="A1:Z1035"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.5703125" customWidth="1"/>
     <col min="3" max="3" width="68.5703125" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
@@ -2341,7 +2344,7 @@
     <row r="4" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" s="2" customFormat="1" ht="40.5">
       <c r="A5" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -2351,302 +2354,412 @@
       </c>
     </row>
     <row r="6" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" s="18" customFormat="1" ht="13.5">
-      <c r="A7" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="19" t="b">
+    <row r="7" spans="1:26" s="8" customFormat="1" ht="67.5">
+      <c r="A7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="19">
         <v>1</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="18" customFormat="1" ht="13.5">
-      <c r="A8" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="19" t="b">
+      <c r="C7" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="8" customFormat="1" ht="13.5">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:26" s="8" customFormat="1" ht="13.5">
+      <c r="A9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:26" s="8" customFormat="1" ht="13.5">
+      <c r="A10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:26" s="8" customFormat="1" ht="13.5">
+      <c r="A11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:26" s="8" customFormat="1" ht="13.5">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:26" s="8" customFormat="1" ht="13.5">
+      <c r="A13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:26" s="8" customFormat="1" ht="13.5">
+      <c r="A14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:26" s="8" customFormat="1" ht="13.5">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:26" s="8" customFormat="1" ht="13.5">
+      <c r="A16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" s="8" customFormat="1" ht="13.5">
+      <c r="A17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" s="8" customFormat="1" ht="13.5">
+      <c r="A18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" s="8" customFormat="1" ht="13.5">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" s="8" customFormat="1" ht="13.5">
+      <c r="A20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3" s="8" customFormat="1" ht="13.5">
+      <c r="A21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" s="8" customFormat="1" ht="13.5">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A23" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" s="18" customFormat="1" ht="13.5">
-      <c r="A9" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="19" t="b">
+      <c r="C23" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A24" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" s="18" customFormat="1" ht="13.5">
-      <c r="A10" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="18" customFormat="1" ht="13.5">
-      <c r="A11" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="18" customFormat="1" ht="13.5">
-      <c r="A12" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="18" customFormat="1" ht="13.5">
-      <c r="A13" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-    </row>
-    <row r="15" spans="1:26" s="18" customFormat="1" ht="13.5">
-      <c r="A15" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="18" customFormat="1" ht="13.5">
-      <c r="A16" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A17" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A18" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A19" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A20" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A21" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A22" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="18" customFormat="1" ht="27">
-      <c r="A23" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="18" customFormat="1" ht="27">
-      <c r="A24" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>101</v>
-      </c>
       <c r="C24" s="22" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A25" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>123</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A26" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>123</v>
+        <v>114</v>
+      </c>
+      <c r="B26" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A27" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="21"/>
+        <v>109</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>113</v>
+      </c>
       <c r="C27" s="22" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A28" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="21"/>
+        <v>111</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>92</v>
+      </c>
       <c r="C28" s="22" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A29" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+    </row>
+    <row r="31" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A31" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A32" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A33" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A34" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A35" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A36" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A37" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A38" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="18" customFormat="1" ht="27">
+      <c r="A39" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="18" customFormat="1" ht="27">
+      <c r="A40" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A30" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="2" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3" s="8" customFormat="1" ht="13.5">
-      <c r="A32" s="11"/>
-      <c r="B32" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="11"/>
-    </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="34" spans="1:3" s="8" customFormat="1" ht="13.5">
-      <c r="A34" s="11"/>
-      <c r="B34" s="16" t="s">
+      <c r="B40" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A41" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A42" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A43" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A44" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A45" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A46" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="2" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:3" s="8" customFormat="1" ht="13.5">
+      <c r="A48" s="11"/>
+      <c r="B48" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="11"/>
+    </row>
+    <row r="49" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="50" spans="1:3" s="8" customFormat="1" ht="13.5">
+      <c r="A50" s="11"/>
+      <c r="B50" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="11"/>
-    </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
+      <c r="C50" s="11"/>
+    </row>
+    <row r="51" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="52" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="53" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="54" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="55" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="56" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="57" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="58" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="59" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="60" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="61" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="62" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="63" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="64" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="65" ht="14.25" customHeight="1"/>
     <row r="66" ht="14.25" customHeight="1"/>
     <row r="67" ht="14.25" customHeight="1"/>
@@ -3602,6 +3715,22 @@
     <row r="1017" ht="14.25" customHeight="1"/>
     <row r="1018" ht="14.25" customHeight="1"/>
     <row r="1019" ht="14.25" customHeight="1"/>
+    <row r="1020" ht="14.25" customHeight="1"/>
+    <row r="1021" ht="14.25" customHeight="1"/>
+    <row r="1022" ht="14.25" customHeight="1"/>
+    <row r="1023" ht="14.25" customHeight="1"/>
+    <row r="1024" ht="14.25" customHeight="1"/>
+    <row r="1025" ht="14.25" customHeight="1"/>
+    <row r="1026" ht="14.25" customHeight="1"/>
+    <row r="1027" ht="14.25" customHeight="1"/>
+    <row r="1028" ht="14.25" customHeight="1"/>
+    <row r="1029" ht="14.25" customHeight="1"/>
+    <row r="1030" ht="14.25" customHeight="1"/>
+    <row r="1031" ht="14.25" customHeight="1"/>
+    <row r="1032" ht="14.25" customHeight="1"/>
+    <row r="1033" ht="14.25" customHeight="1"/>
+    <row r="1034" ht="14.25" customHeight="1"/>
+    <row r="1035" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5771,15 +5900,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="36" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77.85546875" style="11" customWidth="1"/>
     <col min="3" max="3" width="63.5703125" style="11" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" style="8" customWidth="1"/>
@@ -5866,158 +5995,67 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="67.5">
-      <c r="A8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="11">
-        <v>1</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>49</v>
+    <row r="9" spans="1:26">
+      <c r="B9" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>31</v>
+        <v>61</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>32</v>
+        <v>63</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>33</v>
+      <c r="B14" s="16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="11" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>34</v>
+        <v>70</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>39</v>
+      <c r="B17" s="16" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="B19" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="40.5">
       <c r="A21" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="B30" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="B33" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="B35" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="40.5">
-      <c r="A36" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B21" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>78</v>
       </c>
     </row>

--- a/勝又自作Attended_Framework_拡張v1/Data/Config.xlsx
+++ b/勝又自作Attended_Framework_拡張v1/Data/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="1710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="1710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="説明" sheetId="5" r:id="rId1"/>
@@ -970,17 +970,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>正常終了。
-【アウトプットフォルダ】</t>
-    <rPh sb="0" eb="2">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>詳細はログ参照。
 【エクセプション情報】</t>
     <rPh sb="17" eb="19">
@@ -1390,6 +1379,17 @@
     </rPh>
     <rPh sb="84" eb="85">
       <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>正常終了。
+&lt;【アウトプットフォルダ】&gt;</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -2158,7 +2158,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2168,7 +2168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -2192,22 +2192,22 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2237,7 +2237,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2263,12 +2263,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2282,9 +2282,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1035"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2344,7 +2344,7 @@
     <row r="4" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" s="2" customFormat="1" ht="40.5">
       <c r="A5" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -2482,79 +2482,79 @@
     </row>
     <row r="23" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A23" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" s="19" t="b">
         <v>1</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A24" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" s="19" t="b">
         <v>1</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A25" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25" s="19" t="b">
         <v>1</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A26" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B26" s="19" t="b">
         <v>1</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A27" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A28" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>92</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A29" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>93</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="2" customFormat="1" ht="14.25" customHeight="1">
@@ -2564,24 +2564,24 @@
     </row>
     <row r="31" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A31" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B31" s="19" t="b">
         <v>0</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A32" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B32" s="19" t="b">
         <v>0</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2589,10 +2589,10 @@
         <v>79</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2600,21 +2600,21 @@
         <v>80</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A35" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2622,32 +2622,32 @@
         <v>81</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A37" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A38" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="19" t="s">
         <v>95</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="18" customFormat="1" ht="27">
@@ -2655,10 +2655,10 @@
         <v>84</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="18" customFormat="1" ht="27">
@@ -2666,10 +2666,10 @@
         <v>88</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2677,10 +2677,10 @@
         <v>85</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2688,10 +2688,10 @@
         <v>89</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2727,14 +2727,14 @@
       </c>
       <c r="B46" s="21"/>
       <c r="C46" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="2" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="48" spans="1:3" s="8" customFormat="1" ht="13.5">
       <c r="A48" s="11"/>
       <c r="B48" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C48" s="11"/>
     </row>
@@ -6040,7 +6040,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="B17" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:3">

--- a/勝又自作Attended_Framework_拡張v1/Data/Config.xlsx
+++ b/勝又自作Attended_Framework_拡張v1/Data/Config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="140">
   <si>
     <t>Name</t>
   </si>
@@ -259,26 +259,6 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>ソク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>1以上の整数を設定する。
-以下のような使用例を想定。
-　　1：開発モード(開発レベル・運用レベルの両方をテキスト出力)
-　　2：運用モード(運用レベルのみテキスト出力)
-　　3：テキスト出力のオフ</t>
-    <rPh sb="37" eb="39">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ウンヨウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>リョウホウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1053,41 +1033,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>　※規定値ではプロジェクトフォルダ内Dataフォルダに配置された Config.xlsx を自動取得しますが，</t>
-    <rPh sb="2" eb="5">
-      <t>キテイチ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="46" eb="50">
-      <t>ジドウシュトク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　引数にパスを指定することで Config.xlsx をプロジェクトフォルダ外に配置することも可能です。</t>
-    <rPh sb="2" eb="4">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ガイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>　※Config.xlsx とは別に，資格情報一括取得用Excel(Credentials.xlsx)，パラメタ情報一括取得用Excel(Parameters.xlsx)に定義した設定情報を自動取得し，</t>
     <rPh sb="16" eb="17">
       <t>ベツ</t>
@@ -1097,13 +1042,6 @@
     </rPh>
     <rPh sb="62" eb="63">
       <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　辞書型変数データ格納する機能もサポートしています。</t>
-    <rPh sb="14" eb="16">
-      <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1206,19 +1144,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>＝＝＝　（ここまでは，Attended_Framework_拡張v1 がサポートする機能で使用する設定項目）　＝＝＝</t>
-    <rPh sb="45" eb="47">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>(v20210314 Release) TRUE or FALSE　：　TRUEの場合は出力します。</t>
     <rPh sb="44" eb="46">
       <t>シュツリョク</t>
@@ -1351,34 +1276,6 @@
     <t>(v20210314 Release) "【エクセプション情報】"はエクセプション情報にReplaceします。</t>
     <rPh sb="41" eb="43">
       <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>・Config.xlsx 内ではセルのメモ(コメント)機能を使わないでください。　※UiPathのExcelワークシート操作のアクティビティで問題が発生する可能性がある為。</t>
-    <rPh sb="13" eb="14">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="78" eb="81">
-      <t>カノウセイ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>タメ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1392,13 +1289,255 @@
       <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>＝＝＝　（ここまでは，Attended_Framework_拡張v1 がサポートする機能で予約の設定項目）　＝＝＝</t>
+    <rPh sb="45" eb="47">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>GetCredentials_Enable</t>
+  </si>
+  <si>
+    <t>・Config.xlsx 内ではExcelセルのメモ(コメント)機能を使わないでください。　※UiPathのExcelワークシート操作のアクティビティで問題が発生する可能性がある為。</t>
+    <rPh sb="13" eb="14">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="83" eb="86">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　※規定値ではプロジェクトフォルダ内Dataフォルダに配置された "Config.xlsx" を自動取得しますが，</t>
+    <rPh sb="2" eb="5">
+      <t>キテイチ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>ジドウシュトク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　ロボットプロセス引数にパスを指定することで "Config.xlsx" をプロジェクトフォルダ外の任意パス，ファイル名で配置することも可能です。</t>
+    <rPh sb="10" eb="12">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　辞書型変数データ格納する機能もFramework機能でサポートしています。</t>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="17" eb="28">
+      <t>フレームワークキノウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>＜ログ出力実装補助＞で使用。</t>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"1" 以上の整数を設定する。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>運用例として，以下のような運用が可能。
+　　1：開発モード(開発レベル・運用レベルの両方をテキスト出力)
+　　2：運用モード(運用レベルのみテキスト出力)
+　　3：テキスト出力のオフ
+もしくはシンプルに以下のように利用できます。
+　　1：開発時（ログ情報をテキストにも出力）
+　　3：本番時（ログ情報のテキスト出力をオフ）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+※本番時はログ情報のテキスト出力オフを推奨します（性能を考慮）。</t>
+    </r>
+    <rPh sb="16" eb="19">
+      <t>ウンヨウレイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>ホンバン</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>ホンバン</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="197" eb="199">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>MkYmdHmsFolder_Enable</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>MkYmdHmsFolder_Format</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(v20210401 Release) TRUE or FALSE　：　TRUEの場合はCredentials一括取得を実行します。</t>
+    <rPh sb="60" eb="62">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(v20210401 Release) DateTime.ToStringメソッドに指定する書式指定。例："yyyyMMdd_HHmmss"</t>
+    <rPh sb="42" eb="44">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ショシキ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(v20210401 Release) TRUE or FALSE　：　TRUEの場合はプロセス実行毎アウトプットフォルダにYMDhmsフォルダを作成。元々存在すればアウトプットフォルダを変えるだけ。</t>
+    <rPh sb="48" eb="50">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>モトモト</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>yyyyMMdd_HHmmss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1492,6 +1631,14 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0070C0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1615,7 +1762,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>526676</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2158,7 +2305,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2169,7 +2316,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2179,7 +2326,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2187,27 +2334,27 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2218,7 +2365,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2229,7 +2376,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2237,7 +2384,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2245,7 +2392,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2253,22 +2400,22 @@
         <v>26</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="27" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2280,11 +2427,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1035"/>
+  <dimension ref="A1:Z1040"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2344,7 +2491,7 @@
     <row r="4" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" s="2" customFormat="1" ht="40.5">
       <c r="A5" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -2354,7 +2501,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" s="8" customFormat="1" ht="67.5">
+    <row r="7" spans="1:26" s="8" customFormat="1" ht="103.5">
       <c r="A7" s="11" t="s">
         <v>28</v>
       </c>
@@ -2362,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="8" customFormat="1" ht="13.5">
@@ -2377,7 +2524,9 @@
       <c r="B9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="22" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="10" spans="1:26" s="8" customFormat="1" ht="13.5">
       <c r="A10" s="11" t="s">
@@ -2386,7 +2535,9 @@
       <c r="B10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="22" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="11" spans="1:26" s="8" customFormat="1" ht="13.5">
       <c r="A11" s="11" t="s">
@@ -2395,7 +2546,9 @@
       <c r="B11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="22" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="12" spans="1:26" s="8" customFormat="1" ht="13.5">
       <c r="A12" s="11"/>
@@ -2409,7 +2562,9 @@
       <c r="B13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="22" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="14" spans="1:26" s="8" customFormat="1" ht="13.5">
       <c r="A14" s="11" t="s">
@@ -2418,7 +2573,9 @@
       <c r="B14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="22" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="15" spans="1:26" s="8" customFormat="1" ht="13.5">
       <c r="A15" s="11"/>
@@ -2432,7 +2589,9 @@
       <c r="B16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="C16" s="22" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="17" spans="1:3" s="8" customFormat="1" ht="13.5">
       <c r="A17" s="11" t="s">
@@ -2441,7 +2600,9 @@
       <c r="B17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="22" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="18" spans="1:3" s="8" customFormat="1" ht="13.5">
       <c r="A18" s="11" t="s">
@@ -2450,7 +2611,9 @@
       <c r="B18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="22" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="19" spans="1:3" s="8" customFormat="1" ht="13.5">
       <c r="A19" s="11"/>
@@ -2464,7 +2627,9 @@
       <c r="B20" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="11"/>
+      <c r="C20" s="22" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="21" spans="1:3" s="8" customFormat="1" ht="13.5">
       <c r="A21" s="11" t="s">
@@ -2473,7 +2638,9 @@
       <c r="B21" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="11"/>
+      <c r="C21" s="22" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="22" spans="1:3" s="8" customFormat="1" ht="13.5">
       <c r="A22" s="11"/>
@@ -2482,275 +2649,313 @@
     </row>
     <row r="23" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A23" s="21" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B23" s="19" t="b">
         <v>1</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A24" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>122</v>
-      </c>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="8" customFormat="1" ht="13.5">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A25" s="21" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="B25" s="19" t="b">
         <v>1</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A26" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="19" t="b">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A27" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>124</v>
-      </c>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="8" customFormat="1" ht="13.5">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A28" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>92</v>
+        <v>106</v>
+      </c>
+      <c r="B28" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A29" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>93</v>
+        <v>108</v>
+      </c>
+      <c r="B29" s="19" t="b">
+        <v>1</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A30" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="31" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A31" s="21" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B31" s="19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A32" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="19" t="b">
-        <v>0</v>
+        <v>107</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>111</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A33" s="21" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A34" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>99</v>
+        <v>110</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A35" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>127</v>
-      </c>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A36" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="B36" s="19" t="b">
+        <v>0</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A37" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>94</v>
+        <v>104</v>
+      </c>
+      <c r="B37" s="19" t="b">
+        <v>0</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A38" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>95</v>
+        <v>78</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="18" customFormat="1" ht="27">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A39" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>131</v>
+        <v>79</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="18" customFormat="1" ht="27">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A40" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" s="25" t="s">
         <v>97</v>
       </c>
+      <c r="B40" s="21" t="s">
+        <v>100</v>
+      </c>
       <c r="C40" s="22" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A41" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>114</v>
+        <v>80</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A42" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>114</v>
+        <v>81</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A43" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" s="21"/>
+        <v>82</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>94</v>
+      </c>
       <c r="C43" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="18" customFormat="1" ht="13.5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="18" customFormat="1" ht="27">
       <c r="A44" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44" s="21"/>
+        <v>83</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>125</v>
+      </c>
       <c r="C44" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="18" customFormat="1" ht="13.5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="18" customFormat="1" ht="27">
       <c r="A45" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="21"/>
+      <c r="B45" s="25" t="s">
+        <v>96</v>
+      </c>
       <c r="C45" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A46" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="21"/>
+        <v>84</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>113</v>
+      </c>
       <c r="C46" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="2" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="48" spans="1:3" s="8" customFormat="1" ht="13.5">
-      <c r="A48" s="11"/>
-      <c r="B48" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="11"/>
-    </row>
-    <row r="49" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="50" spans="1:3" s="8" customFormat="1" ht="13.5">
-      <c r="A50" s="11"/>
-      <c r="B50" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="11"/>
-    </row>
-    <row r="51" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="52" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="53" spans="1:3" ht="14.25" customHeight="1"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A47" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A48" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="21"/>
+      <c r="C48" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A49" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A50" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="18" customFormat="1" ht="13.5">
+      <c r="A51" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="2" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="53" spans="1:3" s="8" customFormat="1" ht="13.5">
+      <c r="A53" s="11"/>
+      <c r="B53" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="11"/>
+    </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="55" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="55" spans="1:3" s="8" customFormat="1" ht="13.5">
+      <c r="A55" s="11"/>
+      <c r="B55" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="11"/>
+    </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="57" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="58" spans="1:3" ht="14.25" customHeight="1"/>
@@ -3731,6 +3936,11 @@
     <row r="1033" ht="14.25" customHeight="1"/>
     <row r="1034" ht="14.25" customHeight="1"/>
     <row r="1035" ht="14.25" customHeight="1"/>
+    <row r="1036" ht="14.25" customHeight="1"/>
+    <row r="1037" ht="14.25" customHeight="1"/>
+    <row r="1038" ht="14.25" customHeight="1"/>
+    <row r="1039" ht="14.25" customHeight="1"/>
+    <row r="1040" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3740,10 +3950,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z996"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3791,65 +4001,75 @@
     <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>5000</v>
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>30000</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>120000</v>
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
+      <c r="B7" s="16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
+    <row r="9" spans="1:26" s="8" customFormat="1" ht="13.5">
+      <c r="A9" s="11"/>
+      <c r="B9" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>5000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>30000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>120000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
@@ -4833,6 +5053,7 @@
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4841,10 +5062,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4886,17 +5107,23 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" s="8" customFormat="1" ht="13.5">
+      <c r="A3" s="11"/>
+      <c r="B3" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -5892,6 +6119,9 @@
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
+    <row r="1002" ht="14.25" customHeight="1"/>
+    <row r="1003" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5900,10 +6130,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="13.5"/>
@@ -5951,13 +6181,13 @@
     </row>
     <row r="2" spans="1:26" ht="15">
       <c r="C2" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2"/>
     </row>
     <row r="3" spans="1:26" ht="15">
       <c r="C3" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3"/>
     </row>
@@ -5967,10 +6197,10 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:26" customFormat="1" ht="15">
@@ -5978,7 +6208,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>12</v>
@@ -5989,74 +6219,77 @@
         <v>27</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="B9" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="C10" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="B14" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="B12" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>71</v>
-      </c>
+      <c r="B15" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15">
+      <c r="B16"/>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" s="16" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="B19" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="40.5">
-      <c r="A21" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>78</v>
+      <c r="A19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="40.5">
+      <c r="A20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -6121,10 +6354,10 @@
     <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>

--- a/勝又自作Attended_Framework_拡張v1/Data/Config.xlsx
+++ b/勝又自作Attended_Framework_拡張v1/Data/Config.xlsx
@@ -950,14 +950,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>詳細はログ参照。
-【エクセプション情報】</t>
-    <rPh sb="17" eb="19">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>EndSmtpSend_CredentialsKeyメールアカウント</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1161,49 +1153,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>(v20210314 Release) MainProcess.xamlがNormal終了の場合。文字列中 "【sYMDhms】" は開始YYYYMMDD_hhmmss形式タイムスタンプにReplaceします。想定されるワーニング等を反映したい場合はMainProcess.xaml側で本dictionaryのValueを更新してください。</t>
-    <rPh sb="43" eb="45">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="141" eb="142">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="143" eb="144">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="161" eb="163">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>(v20210314 Release) MainProcess.xamlがNormal終了の場合。文字列中 "【eYMDhms】"・"【sYMDhms】" は開始・終了YYYYMMDD_hhmmss形式タイムスタンプにReplaceします。想定されるワーニング等を反映したい場合はMainProcess.xaml側で本dictionaryのValueを更新してください。</t>
     <rPh sb="43" eb="45">
       <t>シュウリョウ</t>
@@ -1264,31 +1213,6 @@
   </si>
   <si>
     <t>(v20210314 Release)</t>
-  </si>
-  <si>
-    <t>(v20210314 Release) "【アウトプットフォルダ】"は「プロセス実行毎アウトプットフォルダ」値にReplaceします。</t>
-    <rPh sb="54" eb="55">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>(v20210314 Release) "【エクセプション情報】"はエクセプション情報にReplaceします。</t>
-    <rPh sb="41" eb="43">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>正常終了。
-&lt;【アウトプットフォルダ】&gt;</t>
-    <rPh sb="0" eb="2">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>＝＝＝　（ここまでは，Attended_Framework_拡張v1 がサポートする機能で予約の設定項目）　＝＝＝</t>
@@ -1531,6 +1455,75 @@
   </si>
   <si>
     <t>yyyyMMdd_HHmmss</t>
+  </si>
+  <si>
+    <t>(v20210314 Release) MainProcess.xamlがNormal終了の場合。文字列中 "【sYMDhms】" は開始YYYYMMDD_hhmmss形式タイムスタンプにReplaceします。</t>
+    <rPh sb="43" eb="45">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(v20210314 Release) 文字列中 "【アウトプットフォルダ】"は「プロセス実行毎アウトプットフォルダ」値に，"【eYMDhms】"・"【sYMDhms】" は開始・終了YYYYMMDD_hhmmss形式タイムスタンプにReplaceします。</t>
+    <rPh sb="59" eb="60">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(v20210314 Release) Normalの場合と同上に加えて，"【エクセプション情報】"はエクセプション情報にReplaceします。</t>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ドウジョウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>正常終了。
+Start:【sYMDhms】 End:【eYMDhms】
+アウトプットフォルダ：
+&lt;【アウトプットフォルダ】&gt;</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>詳細はログ参照。
+Start:【sYMDhms】 End:【eYMDhms】
+アウトプットフォルダ：
+&lt;【アウトプットフォルダ】&gt;
+【エクセプション情報】</t>
+    <rPh sb="74" eb="76">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -2305,7 +2298,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2339,22 +2332,22 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2384,7 +2377,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2410,12 +2403,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2430,8 +2423,8 @@
   <dimension ref="A1:Z1040"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2491,7 +2484,7 @@
     <row r="4" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" s="2" customFormat="1" ht="40.5">
       <c r="A5" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -2509,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="8" customFormat="1" ht="13.5">
@@ -2525,7 +2518,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="8" customFormat="1" ht="13.5">
@@ -2536,7 +2529,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="8" customFormat="1" ht="13.5">
@@ -2547,7 +2540,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="8" customFormat="1" ht="13.5">
@@ -2563,7 +2556,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="8" customFormat="1" ht="13.5">
@@ -2574,7 +2567,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="8" customFormat="1" ht="13.5">
@@ -2590,7 +2583,7 @@
         <v>35</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="8" customFormat="1" ht="13.5">
@@ -2601,7 +2594,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="8" customFormat="1" ht="13.5">
@@ -2612,7 +2605,7 @@
         <v>36</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="8" customFormat="1" ht="13.5">
@@ -2628,7 +2621,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="8" customFormat="1" ht="13.5">
@@ -2639,7 +2632,7 @@
         <v>46</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="8" customFormat="1" ht="13.5">
@@ -2649,13 +2642,13 @@
     </row>
     <row r="23" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A23" s="21" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B23" s="19" t="b">
         <v>1</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="8" customFormat="1" ht="13.5">
@@ -2665,24 +2658,24 @@
     </row>
     <row r="25" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A25" s="21" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B25" s="19" t="b">
         <v>1</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A26" s="21" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="8" customFormat="1" ht="13.5">
@@ -2692,79 +2685,79 @@
     </row>
     <row r="28" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A28" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B28" s="19" t="b">
         <v>1</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A29" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B29" s="19" t="b">
         <v>1</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A30" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30" s="19" t="b">
         <v>1</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A31" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B31" s="19" t="b">
         <v>1</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A32" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A33" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>91</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A34" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>92</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" ht="14.25" customHeight="1">
@@ -2774,24 +2767,24 @@
     </row>
     <row r="36" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A36" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36" s="19" t="b">
         <v>0</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A37" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B37" s="19" t="b">
         <v>0</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2799,10 +2792,10 @@
         <v>78</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2810,21 +2803,21 @@
         <v>79</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A40" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2832,10 +2825,10 @@
         <v>80</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2846,7 +2839,7 @@
         <v>93</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2857,29 +2850,29 @@
         <v>94</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="18" customFormat="1" ht="27">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="18" customFormat="1" ht="54">
       <c r="A44" s="21" t="s">
         <v>83</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="18" customFormat="1" ht="27">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="18" customFormat="1" ht="67.5">
       <c r="A45" s="21" t="s">
         <v>87</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2887,10 +2880,10 @@
         <v>84</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2898,10 +2891,10 @@
         <v>88</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2910,7 +2903,7 @@
       </c>
       <c r="B48" s="21"/>
       <c r="C48" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2919,7 +2912,7 @@
       </c>
       <c r="B49" s="21"/>
       <c r="C49" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2928,7 +2921,7 @@
       </c>
       <c r="B50" s="21"/>
       <c r="C50" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2937,14 +2930,14 @@
       </c>
       <c r="B51" s="21"/>
       <c r="C51" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="2" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="53" spans="1:3" s="8" customFormat="1" ht="13.5">
       <c r="A53" s="11"/>
       <c r="B53" s="16" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C53" s="11"/>
     </row>
@@ -4025,7 +4018,7 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="B7" s="16" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -6259,7 +6252,7 @@
     </row>
     <row r="15" spans="1:26">
       <c r="B15" s="16" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15">

--- a/勝又自作Attended_Framework_拡張v1/Data/Config.xlsx
+++ b/勝又自作Attended_Framework_拡張v1/Data/Config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="141">
   <si>
     <t>Name</t>
   </si>
@@ -929,23 +929,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>＜○正常終了＞ ロボット名</t>
-    <rPh sb="4" eb="6">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>＜★異常終了！＞ ロボット名</t>
-    <rPh sb="2" eb="6">
-      <t>イジョウシュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>プロセス実行毎アウトプットフォルダ</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1479,13 +1462,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>(v20210314 Release) 文字列中 "【アウトプットフォルダ】"は「プロセス実行毎アウトプットフォルダ」値に，"【eYMDhms】"・"【sYMDhms】" は開始・終了YYYYMMDD_hhmmss形式タイムスタンプにReplaceします。</t>
-    <rPh sb="59" eb="60">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>(v20210314 Release) Normalの場合と同上に加えて，"【エクセプション情報】"はエクセプション情報にReplaceします。</t>
     <rPh sb="27" eb="29">
       <t>バアイ</t>
@@ -1502,7 +1478,7 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>正常終了。
+    <t>正常終了。　*from the robot process on 【Machine】
 Start:【sYMDhms】 End:【eYMDhms】
 アウトプットフォルダ：
 &lt;【アウトプットフォルダ】&gt;</t>
@@ -1515,13 +1491,44 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>詳細はログ参照。
+    <t>詳細はログ参照。　*from the robot process on 【Machine】
 Start:【sYMDhms】 End:【eYMDhms】
 アウトプットフォルダ：
 &lt;【アウトプットフォルダ】&gt;
 【エクセプション情報】</t>
-    <rPh sb="74" eb="76">
+    <rPh sb="111" eb="113">
       <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(v20210314 Release) 文字列中 "【Machine】" は "Machine:[コンピュータ名]" にReplaceします。</t>
+    <rPh sb="55" eb="56">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(v20210314 Release) 文字列中 "【Machine】" は "Machine:[コンピュータ名]" に， "【アウトプットフォルダ】"は「プロセス実行毎アウトプットフォルダ」値に，"【eYMDhms】"・"【sYMDhms】" は開始・終了YYYYMMDD_hhmmss形式タイムスタンプにReplaceします。</t>
+    <rPh sb="96" eb="97">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>＜○正常終了＞ ロボット名 on 【Machine】</t>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>＜★異常終了！＞ ロボット名 on 【Machine】</t>
+    <rPh sb="2" eb="6">
+      <t>イジョウシュウリョウ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -2298,7 +2305,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2332,22 +2339,22 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2377,7 +2384,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2403,12 +2410,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2423,8 +2430,8 @@
   <dimension ref="A1:Z1040"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2484,7 +2491,7 @@
     <row r="4" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" s="2" customFormat="1" ht="40.5">
       <c r="A5" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
@@ -2502,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="8" customFormat="1" ht="13.5">
@@ -2518,7 +2525,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="8" customFormat="1" ht="13.5">
@@ -2529,7 +2536,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="8" customFormat="1" ht="13.5">
@@ -2540,7 +2547,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="8" customFormat="1" ht="13.5">
@@ -2556,7 +2563,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="8" customFormat="1" ht="13.5">
@@ -2567,7 +2574,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="8" customFormat="1" ht="13.5">
@@ -2583,7 +2590,7 @@
         <v>35</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="8" customFormat="1" ht="13.5">
@@ -2594,7 +2601,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="8" customFormat="1" ht="13.5">
@@ -2605,7 +2612,7 @@
         <v>36</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="8" customFormat="1" ht="13.5">
@@ -2621,7 +2628,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="8" customFormat="1" ht="13.5">
@@ -2632,7 +2639,7 @@
         <v>46</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="8" customFormat="1" ht="13.5">
@@ -2642,13 +2649,13 @@
     </row>
     <row r="23" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A23" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B23" s="19" t="b">
         <v>1</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="8" customFormat="1" ht="13.5">
@@ -2658,24 +2665,24 @@
     </row>
     <row r="25" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A25" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B25" s="19" t="b">
         <v>1</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A26" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="8" customFormat="1" ht="13.5">
@@ -2685,79 +2692,79 @@
     </row>
     <row r="28" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A28" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B28" s="19" t="b">
         <v>1</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A29" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B29" s="19" t="b">
         <v>1</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A30" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B30" s="19" t="b">
         <v>1</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A31" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B31" s="19" t="b">
         <v>1</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A32" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A33" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>91</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A34" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>92</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" ht="14.25" customHeight="1">
@@ -2767,24 +2774,24 @@
     </row>
     <row r="36" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A36" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B36" s="19" t="b">
         <v>0</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A37" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B37" s="19" t="b">
         <v>0</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2792,10 +2799,10 @@
         <v>78</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2803,21 +2810,21 @@
         <v>79</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="18" customFormat="1" ht="13.5">
       <c r="A40" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2825,10 +2832,10 @@
         <v>80</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2836,10 +2843,10 @@
         <v>81</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2847,10 +2854,10 @@
         <v>82</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="18" customFormat="1" ht="54">
@@ -2858,10 +2865,10 @@
         <v>83</v>
       </c>
       <c r="B44" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="22" t="s">
         <v>138</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="18" customFormat="1" ht="67.5">
@@ -2869,10 +2876,10 @@
         <v>87</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2880,10 +2887,10 @@
         <v>84</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2891,10 +2898,10 @@
         <v>88</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2903,7 +2910,7 @@
       </c>
       <c r="B48" s="21"/>
       <c r="C48" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2912,7 +2919,7 @@
       </c>
       <c r="B49" s="21"/>
       <c r="C49" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2921,7 +2928,7 @@
       </c>
       <c r="B50" s="21"/>
       <c r="C50" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="18" customFormat="1" ht="13.5">
@@ -2930,14 +2937,14 @@
       </c>
       <c r="B51" s="21"/>
       <c r="C51" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="2" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="53" spans="1:3" s="8" customFormat="1" ht="13.5">
       <c r="A53" s="11"/>
       <c r="B53" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C53" s="11"/>
     </row>
@@ -3946,7 +3953,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4018,7 +4025,7 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="B7" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -6241,7 +6248,7 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>69</v>
@@ -6252,7 +6259,7 @@
     </row>
     <row r="15" spans="1:26">
       <c r="B15" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15">

--- a/勝又自作Attended_Framework_拡張v1/Data/Config.xlsx
+++ b/勝又自作Attended_Framework_拡張v1/Data/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="1710" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="1710" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="説明" sheetId="5" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="Constants" sheetId="2" r:id="rId3"/>
     <sheet name="Assets" sheetId="3" r:id="rId4"/>
     <sheet name="環境" sheetId="4" r:id="rId5"/>
-    <sheet name="サンプルシート" sheetId="6" r:id="rId6"/>
+    <sheet name="サンプル追加シート" sheetId="6" r:id="rId6"/>
+    <sheet name="★セル参照シート" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="206">
   <si>
     <t>Name</t>
   </si>
@@ -55,9 +56,6 @@
   </si>
   <si>
     <t>ExScreenshotsFolderPath</t>
-  </si>
-  <si>
-    <t>Where to save exceptions screenshots - can be a full or a relative path.</t>
   </si>
   <si>
     <t>logF_BusinessProcessName</t>
@@ -542,10 +540,6 @@
     <t>Credentials_xlsx_パス</t>
   </si>
   <si>
-    <t>%GetCurrentDirectory%\Data\サンプルRPAワーク\PARAM\Credentials.xlsx</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>Parameters_xlsx_パス</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -554,10 +548,6 @@
     <rPh sb="37" eb="39">
       <t>ジッサイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>%GetCurrentDirectory%\Data\サンプルRPAワーク\Debug.txt</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -736,40 +726,7 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>%GetCurrentDirectory%\Data\サンプルRPAワーク\PARAM\Parameters.xlsx</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>スタートDateTime</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>%GetCurrentDirectory%\Data\サンプルRPAワーク\プロセス実行毎アウトプット</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>※ロボットプロセス完成時はプロジェクトフォルダの外部（MyDocumentsの配下等）に配置する運用を想定しています。</t>
-    <rPh sb="9" eb="12">
-      <t>カンセイジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ハイカ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ウンヨウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ソウテイ</t>
-    </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -807,31 +764,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>＝＝＝　（必要に応じて利用してください）　プロセス実行毎アウトプットフォルダの生成場所。実行時に値が"\YYYYMMDD_HHMM"付きに変化します。　＝＝＝</t>
-    <rPh sb="39" eb="41">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ヘンカ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>＝＝＝　（以下，UOCで適宜追加してください）　＝＝＝</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -847,10 +779,6 @@
   </si>
   <si>
     <t>&lt;DesktopDirectory&gt;%DesktopDirectory%　&lt;MyDocuments&gt;%MyDocuments%　&lt;MyPictures&gt;%MyPictures%　&lt;UserProfile&gt;%UserProfile%　&lt;GetCurrentDirectory&gt;%GetCurrentDirectory%</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>%GetCurrentDirectory%\Data\サンプルRPAワーク\ExScreenshots</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -1119,85 +1047,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>(v20210314 Release) TRUE or FALSE　：　TRUEの場合は出力します。</t>
-    <rPh sb="44" eb="46">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>(v20210314 Release) TRUE or FALSE　：　TRUEの場合は終了時にStartTimeStampFileを削除します。</t>
-    <rPh sb="44" eb="47">
-      <t>シュウリョウジ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>(v20210314 Release) MainProcess.xamlがNormal終了の場合。文字列中 "【eYMDhms】"・"【sYMDhms】" は開始・終了YYYYMMDD_hhmmss形式タイムスタンプにReplaceします。想定されるワーニング等を反映したい場合はMainProcess.xaml側で本dictionaryのValueを更新してください。</t>
-    <rPh sb="43" eb="45">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="130" eb="131">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="137" eb="139">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="156" eb="157">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="158" eb="159">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="176" eb="178">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>(v20210314 Release) MainProcess.xamlがException終了の場合。同上。</t>
-    <rPh sb="46" eb="48">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ドウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>(v20210314 Release)</t>
-  </si>
-  <si>
     <t>＝＝＝　（ここまでは，Attended_Framework_拡張v1 がサポートする機能で予約の設定項目）　＝＝＝</t>
     <rPh sb="45" eb="47">
       <t>ヨヤク</t>
@@ -1392,143 +1241,985 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>(v20210401 Release) TRUE or FALSE　：　TRUEの場合はCredentials一括取得を実行します。</t>
-    <rPh sb="60" eb="62">
+    <t>EndMarkFlUpd_Enable_Normal</t>
+  </si>
+  <si>
+    <t>EndMarkFlUpd_Enable_Exception</t>
+  </si>
+  <si>
+    <t>EndMarkFlUpd_更新モード</t>
+  </si>
+  <si>
+    <t>EndMarkFlUpd_更新テキスト</t>
+  </si>
+  <si>
+    <t>EndMarkFlUpd_パス_Normal</t>
+  </si>
+  <si>
+    <t>EndMarkFlUpd_パス_Exception</t>
+  </si>
+  <si>
+    <r>
+      <t>RPA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ワークフォルダ</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ロボット名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>サンプルロボット</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>環境サフィックス</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>＜RPAワークフォルダ＞\ExScreenshots</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>%GetCurrentDirectory%\Data\サンプルRPAワーク</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>＜RPAワークフォルダ＞\Debug.txt</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>＜RPAワークフォルダ＞\PARAM\Credentials.xlsx</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>yyyyMMdd_HHmmss＜環境サフィックス＞</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>※文字列中 "【Machine】" は コンピュータ名 にReplaceします。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>※プロジェクトフォルダ内の "%GetCurrentDirectory%\Data\サンプルRPAワーク" フォルダは，ロボットプロセス完成時に外部（MyDocumentsの配下等）に配置する運用を想定しています。</t>
+    <rPh sb="11" eb="12">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="68" eb="71">
+      <t>カンセイジ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ハイカ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Where to save exceptions screenshots - can be a full or a relative path.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>＜RPAワークフォルダ＞\PARAM\Parameters＜環境サフィックス＞.xlsx</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>＝＝＝　（ここまでは，Attended_Framework_拡張v1 がサポートする機能の設定に関する要素）　＝＝＝</t>
+    <rPh sb="45" eb="47">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テスト実行</t>
+    </r>
+    <rPh sb="4" eb="6">
       <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>(v20210401 Release) DateTime.ToStringメソッドに指定する書式指定。例："yyyyMMdd_HHmmss"</t>
-    <rPh sb="42" eb="44">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ショシキ</t>
+    <t>このシートは "Config.xlsx" の各設定値のメンテナンスを効率化する為に用意したものです。</t>
+    <rPh sb="22" eb="23">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>セッテイチ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>コウリツカ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(v20210314 Release)　同上</t>
+    <rPh sb="20" eb="22">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Start:【sYMDhms】 End:【eYMDhms】　on 【Machine】【エクセプション情報】</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>＝＝＝　（必要に応じて利用してください）　OptFuncオプション機能名「完了目印ファイル更新」設定値　＝＝＝</t>
+    <rPh sb="48" eb="51">
+      <t>セッテイチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>＝＝＝　（必要に応じて利用してください）　OptFuncオプション機能名「TimeStampファイル(Start)作成」設定値。　＝＝＝</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>＝＝＝　（必要に応じて利用してください）　プロセス実行毎アウトプットフォルダの生成場所。OptFuncオプション機能名「YMDhmsフォルダ作成」実行時に値が"\YYYYMMDD_HHMM"付きに変化します。　＝＝＝</t>
+    <rPh sb="39" eb="41">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プロセス実行毎アウトプットフォルダ_MovePlace先</t>
+    <rPh sb="27" eb="28">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プロセス実行毎アウトプットフォルダ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>プロセス実行毎アウトプットフォルダ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>_MovePlace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>先</t>
+    </r>
+    <rPh sb="27" eb="28">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>＝＝＝　（必要に応じて利用してください）　OptFuncオプション機能名「EndSmtpSend」設定値。　＝＝＝</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>文字列中 "【アウトプットフォルダ】"は「プロセス実行毎アウトプットフォルダ」値に，"【eYMDhms】" は開始YYYYMMDD_hhmmss形式タイムスタンプにReplaceします。</t>
+    <rPh sb="39" eb="40">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>RenameOutputFolder_変更後フォルダ名_Normal</t>
+  </si>
+  <si>
+    <t>RenameOutputFolder_変更後フォルダ名_Exception</t>
+  </si>
+  <si>
+    <t>MovePlaceOutputFolder_Enable_Exception</t>
+  </si>
+  <si>
+    <t>MovePlaceOutputFolder_OrgDel</t>
+  </si>
+  <si>
+    <t>RenameOutputFolder_Enable_Normal</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>【アウトプットフォルダ名】_成功</t>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>【アウトプットフォルダ名】_★失敗</t>
+    <rPh sb="15" eb="17">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>RenameOutputFolder_Enable_Exception</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>MovePlaceOutputFolder_Enable_Normal</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(v20220423 Release)
+外部ストレージリスクを考慮し，以下のロジックを基本とする想定です。
+順1：LOCALのYMDフォルダにTimeStamp(End)
+順2：LOCALのYMDフォルダをリネーム
+順3：LOCALのYMDフォルダを外部にMovePlace</t>
+    <rPh sb="35" eb="37">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キホン</t>
     </rPh>
     <rPh sb="48" eb="50">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>(v20210401 Release) TRUE or FALSE　：　TRUEの場合はプロセス実行毎アウトプットフォルダにYMDhmsフォルダを作成。元々存在すればアウトプットフォルダを変えるだけ。</t>
-    <rPh sb="48" eb="50">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>モトモト</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>yyyyMMdd_HHmmss</t>
-  </si>
-  <si>
-    <t>(v20210314 Release) MainProcess.xamlがNormal終了の場合。文字列中 "【sYMDhms】" は開始YYYYMMDD_hhmmss形式タイムスタンプにReplaceします。</t>
-    <rPh sb="43" eb="45">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>EndSmtpSend_添付パス01</t>
+    <rPh sb="12" eb="14">
+      <t>テンプ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>EndSmtpSend_添付パス02</t>
+    <rPh sb="12" eb="14">
+      <t>テンプ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>EndSmtpSend_添付_Enable</t>
+    <rPh sb="12" eb="14">
+      <t>テンプ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>＜○正常終了【添付エラー通知】＞ ＜ロボット名＞＜環境サフィックス＞ on 【Machine】</t>
+    <rPh sb="4" eb="6">
       <t>シュウリョウ</t>
     </rPh>
-    <rPh sb="46" eb="48">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>ケイシキ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>(v20210314 Release) Normalの場合と同上に加えて，"【エクセプション情報】"はエクセプション情報にReplaceします。</t>
-    <rPh sb="27" eb="29">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ドウジョウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>正常終了。　*from the robot process on 【Machine】
-Start:【sYMDhms】 End:【eYMDhms】
-アウトプットフォルダ：
-&lt;【アウトプットフォルダ】&gt;</t>
-    <rPh sb="0" eb="2">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>詳細はログ参照。　*from the robot process on 【Machine】
+    <rPh sb="22" eb="23">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>＜★異常終了！【添付エラー通知】＞ ＜ロボット名＞＜環境サフィックス＞ on 【Machine】</t>
+    <rPh sb="2" eb="6">
+      <t>イジョウシュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>詳細はログ参照。　*from the robot process on 【Machine】【添付エラー通知】
 Start:【sYMDhms】 End:【eYMDhms】
 アウトプットフォルダ：
 &lt;【アウトプットフォルダ】&gt;
 【エクセプション情報】</t>
-    <rPh sb="111" eb="113">
+    <rPh sb="120" eb="122">
       <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>(v20210314 Release) 文字列中 "【Machine】" は "Machine:[コンピュータ名]" にReplaceします。</t>
-    <rPh sb="55" eb="56">
+    <t>(v20220423 Release)　同上　※指定が無くても動作します。</t>
+    <rPh sb="24" eb="26">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>EndSmtpSend_添付エラー通知_件名追記</t>
+    <rPh sb="12" eb="14">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケンメイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>EndSmtpSend_添付エラー通知_本文追記</t>
+    <rPh sb="12" eb="14">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホンブン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(v20220423 Release)　同上　※指定が無くても動作します。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※（必要に応じて修正してください）EndProcess.xaml内のサンプル処理にて，MainProcess成功時にこのスイッチをONにしています。必要に応じてサンプル処理を修正してください。</t>
+    </r>
+    <rPh sb="24" eb="26">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="92" eb="95">
+      <t>セイコウジ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>＜RPAワークフォルダ＞\PARAM\サンプルメール添付ファイル01.txt</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>＜RPAワークフォルダ＞\PARAM\サンプルメール添付ファイル02.txt</t>
+  </si>
+  <si>
+    <t>＜RPAワークフォルダ＞\サンプル完了目印\完了目印_＜ロボット名＞＜環境サフィックス＞_○正常終了.txt</t>
+    <rPh sb="24" eb="26">
+      <t>メジルシ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>＜RPAワークフォルダ＞\サンプル完了目印\完了目印_＜ロボット名＞＜環境サフィックス＞_★異常終了.txt</t>
+    <rPh sb="24" eb="26">
+      <t>メジルシ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>_★添付エラー</t>
+    <rPh sb="2" eb="4">
+      <t>テンプ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+★指定された添付ファイルが見つかりませんでした。</t>
+    <rPh sb="2" eb="4">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>OptFuncオプション機能＜Credentials一括取得＞有効化スイッチ。
+(v20210401 Release)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>OptFuncオプション機能＜YMDhmsフォルダ作成＞有効化スイッチ。
+(v20210401 Release)
+TRUEの場合はプロセス実行毎アウトプットフォルダにYMDhmsフォルダを作成。
+元々存在すればアウトプットフォルダを変えるだけ。</t>
+    <rPh sb="69" eb="71">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>モトモト</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OptFuncオプション機能＜リネームアウトプットフォルダ名(Normal)＞有効化スイッチ。
+(v20220423 Release)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※MkYmdHmsFolderが失敗（MkYmdHmsFolder_Result＝FALSE）の時はスキップします。</t>
+    </r>
+    <rPh sb="84" eb="86">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OptFuncオプション機能＜リネームアウトプットフォルダ名(Exception)＞有効化スイッチ。
+(v20220423 Release)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※MkYmdHmsFolderが失敗（MkYmdHmsFolder_Result＝FALSE）の時はスキップします。</t>
+    </r>
+    <rPh sb="87" eb="89">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OptFuncオプション機能＜アウトプットフォルダ移動(Normal)＞有効化スイッチ。
+(v20220423 Release)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※MkYmdHmsFolderが失敗（MkYmdHmsFolder_Result＝FALSE）の時はスキップします。</t>
+    </r>
+    <rPh sb="81" eb="83">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OptFuncオプション機能＜アウトプットフォルダ移動(Exception)＞有効化スイッチ。
+(v20220423 Release)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※MkYmdHmsFolderが失敗（MkYmdHmsFolder_Result＝FALSE）の時はスキップします。</t>
+    </r>
+    <rPh sb="84" eb="86">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>OptFuncオプション機能＜TimeStampファイル(Start)作成＞有効化スイッチ。
+(v20210314 Release)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>OptFuncオプション機能＜TimeStampファイル(End_Normal)作成＞有効化スイッチ。
+(v20210314 Release)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>OptFuncオプション機能＜TimeStampファイル(End_Exception)作成＞有効化スイッチ。
+(v20210314 Release)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>OptFuncオプション機能＜TimeStampファイル(Start)削除＞有効化スイッチ。
+(v20210314 Release)
+TRUEの場合は終了時にStartTimeStampFileを削除します。</t>
+    <rPh sb="75" eb="78">
+      <t>シュウリョウジ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>OptFuncオプション機能＜SMTPメール(Normal)＞有効化スイッチ。
+(v20210314 Release)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>OptFuncオプション機能＜SMTPメール(Exception)＞有効化スイッチ。
+(v20210314 Release)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>OptFuncオプション機能＜完了目印ファイル更新(Normal)＞有効化スイッチ。
+(v20220423 Release)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>OptFuncオプション機能＜完了目印ファイル更新(Exception)＞有効化スイッチ。
+(v20220423 Release)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>OptFuncオプション機能＜YMDhmsフォルダ作成＞設定値。
+(v20210401 Release)
+DateTime.ToStringメソッドに指定する書式指定。例："yyyyMMdd_HHmmss"</t>
+    <rPh sb="75" eb="77">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ショシキ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>OptFuncオプション機能＜リネームアウトプットフォルダ名＞設定値。
+(v20220423 Release)</t>
+    <rPh sb="31" eb="34">
+      <t>セッテイチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>OptFuncオプション機能＜アウトプットフォルダ移動＞設定値。
+(v20220423 Release)</t>
+    <rPh sb="28" eb="31">
+      <t>セッテイチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>OptFuncオプション機能＜TimeStampファイル(Start)作成＞設定値。
+(v20210314 Release)
+開始時に作成するTimeStampファイル名。文字列中 "【sYMDhms】" は開始YYYYMMDD_hhmmss形式タイムスタンプにReplaceします。</t>
+    <rPh sb="63" eb="66">
+      <t>カイシジ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>(v20210314 Release) 文字列中 "【Machine】" は "Machine:[コンピュータ名]" に， "【アウトプットフォルダ】"は「プロセス実行毎アウトプットフォルダ」値に，"【eYMDhms】"・"【sYMDhms】" は開始・終了YYYYMMDD_hhmmss形式タイムスタンプにReplaceします。</t>
+    <rPh sb="86" eb="89">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>OptFuncオプション機能＜TimeStampファイル(End_Exception)作成＞設定値。
+(v20210314 Release)
+異常終了時に作成するTimeStampファイル名。同上。</t>
+    <rPh sb="71" eb="73">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>OptFuncオプション機能＜TimeStampファイル(End_Normal)作成＞設定値。
+(v20210314 Release)
+正常終了時に作成するTimeStampファイル名。文字列中 "【eYMDhms】"・"【sYMDhms】" は開始・終了YYYYMMDD_hhmmss形式タイムスタンプにReplaceします。想定されるワーニング等を反映したい場合はMainProcess.xaml側で本dictionaryのValueを更新してください。</t>
+    <rPh sb="68" eb="70">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="93" eb="96">
+      <t>モジレツ</t>
+    </rPh>
     <rPh sb="96" eb="97">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="200" eb="201">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="202" eb="203">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="220" eb="222">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>OptFuncオプション機能＜SMTPメール＞設定値。
+(v20210314 Release)</t>
+    <rPh sb="23" eb="26">
+      <t>セッテイチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>OptFuncオプション機能＜完了目印ファイル更新＞設定値。
+(v20220423 Release)
+0：上書き　or　1：先頭に追記　or　2：末尾に追記</t>
+    <rPh sb="26" eb="29">
+      <t>セッテイチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>OptFuncオプション機能＜完了目印ファイル更新＞設定値。
+(v20220423 Release)
+文字列中 "【Machine】" は コンピュータ名 に， "【eYMDhms】"・"【sYMDhms】" は開始・終了YYYYMMDD_hhmmss形式タイムスタンプに，"【エクセプション情報】"はエクセプション情報にReplaceします。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>OptFuncオプション機能＜SMTPメール＞設定値。
+(v20220423 Release)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>OptFuncオプション機能＜完了目印ファイル更新＞設定値。
+(v20220423 Release)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>%GetCurrentDirectory%\Data\サンプルRPAワーク\プロセス実行毎アウトプット</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>%GetCurrentDirectory%\Data\サンプルRPAワーク\プロセス実行毎アウトプット＿外部</t>
+    <rPh sb="52" eb="54">
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(v20210314 Release)　同上
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文字列中 "【Machine】" は "Machine:[コンピュータ名]" に，"【添付エラー通知】" はエラー通知設定文字列にReplaceします。</t>
+    </r>
+    <rPh sb="20" eb="22">
+      <t>ドウジョウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="84" eb="87">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(v20210314 Release)　同上
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文字列中 "【Machine】" は "Machine:[コンピュータ名]" に， "【アウトプットフォルダ】"は「プロセス実行毎アウトプットフォルダ」値に，"【eYMDhms】"・"【sYMDhms】" は開始・終了YYYYMMDD_hhmmss形式タイムスタンプに，"【添付エラー通知】" はエラー通知設定文字列にReplaceします。</t>
+    </r>
+    <rPh sb="99" eb="100">
       <t>チ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>＜○正常終了＞ ロボット名 on 【Machine】</t>
-    <rPh sb="4" eb="6">
+    <r>
+      <t xml:space="preserve">(v20210314 Release)　同上
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Normalの場合と同様。</t>
+    </r>
+    <rPh sb="20" eb="22">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(v20210314 Release)　同上
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Normalの場合と同様に加えて，"【エクセプション情報】"はエクセプション情報にReplaceします。</t>
+    </r>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>正常終了。　*from the robot process on 【Machine】
+Start:【sYMDhms】 End:【eYMDhms】
+アウトプットフォルダ：
+&lt;【アウトプットフォルダ】&gt;【添付エラー通知】</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
       <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>＜★異常終了！＞ ロボット名 on 【Machine】</t>
-    <rPh sb="2" eb="6">
-      <t>イジョウシュウリョウ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1641,7 +2332,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1651,6 +2342,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1670,7 +2385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1689,9 +2404,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1729,8 +2441,37 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1"/>
@@ -1753,16 +2494,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>313766</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2152651</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>526676</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3829050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1771,15 +2512,140 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15049501" y="179294"/>
-          <a:ext cx="3709146" cy="1680882"/>
+          <a:off x="5372101" y="19051"/>
+          <a:ext cx="1676399" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
             <a:gd name="adj1" fmla="val 2017"/>
             <a:gd name="adj2" fmla="val -681"/>
-            <a:gd name="adj3" fmla="val 19233"/>
-            <a:gd name="adj4" fmla="val -28363"/>
+            <a:gd name="adj3" fmla="val 23388"/>
+            <a:gd name="adj4" fmla="val -86369"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>有効化スイッチは，</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TRUE(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>有効</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>) or FALSE(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>無効</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3036795</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="線吹き出し 1 (枠付き) 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15015883" y="862854"/>
+          <a:ext cx="4269441" cy="1703294"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2017"/>
+            <a:gd name="adj2" fmla="val -681"/>
+            <a:gd name="adj3" fmla="val 19093"/>
+            <a:gd name="adj4" fmla="val -262244"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -1930,7 +2796,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>　実行時のカレントフォルダ</a:t>
+            <a:t>　実行時のカレントフォルダ　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>プロジェクトフォルダに相当します。</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1964,7 +2846,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2305,7 +3187,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2326,7 +3208,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2334,27 +3216,27 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2364,58 +3246,58 @@
       <c r="A9" s="6"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="27" t="s">
-        <v>52</v>
+      <c r="A10" s="25" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="27"/>
+      <c r="A11" s="25"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="27" t="s">
-        <v>113</v>
+      <c r="A20" s="25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2427,19 +3309,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1040"/>
+  <dimension ref="A1:Z1058"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="48.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.5703125" customWidth="1"/>
-    <col min="3" max="3" width="68.5703125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="80.85546875" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2479,37 +3362,38 @@
     <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" s="2" customFormat="1" ht="40.5">
-      <c r="A5" s="20" t="s">
-        <v>99</v>
+      <c r="A5" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="2" customFormat="1" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" s="8" customFormat="1" ht="103.5">
       <c r="A7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="19">
+        <v>27</v>
+      </c>
+      <c r="B7" s="29">
+        <f>IF(★セル参照シート!B11="","",★セル参照シート!B9)</f>
         <v>1</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>126</v>
+      <c r="C7" s="13" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="8" customFormat="1" ht="13.5">
@@ -2519,35 +3403,35 @@
     </row>
     <row r="9" spans="1:26" s="8" customFormat="1" ht="13.5">
       <c r="A9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>125</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="8" customFormat="1" ht="13.5">
       <c r="A10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>125</v>
+        <v>46</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="8" customFormat="1" ht="13.5">
       <c r="A11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>125</v>
+        <v>29</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="8" customFormat="1" ht="13.5">
@@ -2557,24 +3441,24 @@
     </row>
     <row r="13" spans="1:26" s="8" customFormat="1" ht="13.5">
       <c r="A13" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>125</v>
+        <v>32</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="8" customFormat="1" ht="13.5">
       <c r="A14" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>125</v>
+        <v>33</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="8" customFormat="1" ht="13.5">
@@ -2584,403 +3468,600 @@
     </row>
     <row r="16" spans="1:26" s="8" customFormat="1" ht="13.5">
       <c r="A16" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="8" customFormat="1" ht="13.5">
+      <c r="A17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="8" customFormat="1" ht="13.5">
+      <c r="A18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="8" customFormat="1" ht="13.5">
-      <c r="A17" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="8" customFormat="1" ht="13.5">
-      <c r="A18" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="8" customFormat="1" ht="13.5">
+      <c r="C18" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="8" customFormat="1" ht="13.5">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
     </row>
-    <row r="20" spans="1:3" s="8" customFormat="1" ht="13.5">
+    <row r="20" spans="1:4" s="8" customFormat="1" ht="13.5">
       <c r="A20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="8" customFormat="1" ht="13.5">
+      <c r="A21" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="8" customFormat="1" ht="13.5">
-      <c r="A21" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="8" customFormat="1" ht="13.5">
+      <c r="C21" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="8" customFormat="1" ht="13.5">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A23" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" s="19" t="b">
+    <row r="23" spans="1:4" s="17" customFormat="1" ht="27">
+      <c r="A23" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="8" customFormat="1" ht="13.5">
+      <c r="C23" s="31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="8" customFormat="1" ht="13.5">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
     </row>
-    <row r="25" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A25" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" s="19" t="b">
+    <row r="25" spans="1:4" s="17" customFormat="1" ht="54">
+      <c r="A25" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A26" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="22" t="s">
+      <c r="C25" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="17" customFormat="1" ht="40.5">
+      <c r="A26" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="29" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(D26,"＜ロボット名＞",★セル参照シート!$B$4),"＜環境サフィックス＞",★セル参照シート!$B$5)</f>
+        <v>yyyyMMdd_HHmmss_テスト実行</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="8" customFormat="1" ht="13.5">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-    </row>
-    <row r="28" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A28" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="19" t="b">
+    <row r="27" spans="1:4" s="8" customFormat="1" ht="13.5">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="33"/>
+    </row>
+    <row r="28" spans="1:4" s="17" customFormat="1" ht="37.5">
+      <c r="A28" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A29" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="19" t="b">
+      <c r="C28" s="32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="17" customFormat="1" ht="37.5">
+      <c r="A29" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A30" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="19" t="b">
+      <c r="C29" s="32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="17" customFormat="1" ht="27">
+      <c r="A30" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="17" customFormat="1" ht="27">
+      <c r="A31" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="8" customFormat="1" ht="13.5">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="33"/>
+    </row>
+    <row r="33" spans="1:4" s="17" customFormat="1" ht="37.5">
+      <c r="A33" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="C30" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A31" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="19" t="b">
+      <c r="C33" s="32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="17" customFormat="1" ht="37.5">
+      <c r="A34" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="17" customFormat="1" ht="27">
+      <c r="A35" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="C31" s="22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A32" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A33" s="21" t="s">
+      <c r="C35" s="32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="8" customFormat="1" ht="13.5">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="1:4" s="17" customFormat="1" ht="27">
+      <c r="A37" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="17" customFormat="1" ht="27">
+      <c r="A38" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="17" customFormat="1" ht="27">
+      <c r="A39" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="17" customFormat="1" ht="40.5">
+      <c r="A40" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="17" customFormat="1" ht="54">
+      <c r="A41" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="17" customFormat="1" ht="67.5">
+      <c r="A42" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="17" customFormat="1" ht="40.5">
+      <c r="A43" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+    </row>
+    <row r="45" spans="1:4" s="17" customFormat="1" ht="27">
+      <c r="A45" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="29" t="str">
+        <f t="shared" ref="B45:B50" si="0">TEXT(D45,"@")</f>
+        <v>FALSE</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" s="29" t="b">
+        <f>IF(★セル参照シート!B10="","",★セル参照シート!B10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="17" customFormat="1" ht="27">
+      <c r="A46" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>FALSE</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D46" s="29" t="b">
+        <f>IF(★セル参照シート!B11="","",★セル参照シート!B11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="17" customFormat="1" ht="27">
+      <c r="A47" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>xxx@docomo.ne.jp</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="D47" s="29" t="str">
+        <f>IF(★セル参照シート!B12="","",★セル参照シート!B12)</f>
+        <v>xxx@docomo.ne.jp</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="17" customFormat="1" ht="13.5">
+      <c r="A48" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>xxx@docomo.ne.jp</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="29" t="str">
+        <f>IF(★セル参照シート!B13="","",★セル参照シート!B13)</f>
+        <v>xxx@docomo.ne.jp</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="17" customFormat="1" ht="13.5">
+      <c r="A49" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="29" t="str">
+        <f>IF(★セル参照シート!B14="","",★セル参照シート!B14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="17" customFormat="1" ht="13.5">
+      <c r="A50" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="29" t="str">
+        <f>IF(★セル参照シート!B15="","",★セル参照シート!B15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="17" customFormat="1" ht="13.5">
+      <c r="A51" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="20"/>
+      <c r="C51" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="17" customFormat="1" ht="13.5">
+      <c r="A52" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="20"/>
+      <c r="C52" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="17" customFormat="1" ht="13.5">
+      <c r="A53" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="17" customFormat="1" ht="13.5">
+      <c r="A54" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="17" customFormat="1" ht="13.5">
+      <c r="A55" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="17" customFormat="1" ht="13.5">
+      <c r="A56" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="17" customFormat="1" ht="34.5">
+      <c r="A57" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="17" customFormat="1" ht="13.5">
+      <c r="A58" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="17" customFormat="1" ht="27">
+      <c r="A59" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="17" customFormat="1" ht="34.5">
+      <c r="A60" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="29" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(D60,"＜ロボット名＞",★セル参照シート!$B$4),"＜環境サフィックス＞",★セル参照シート!$B$5)</f>
+        <v>＜○正常終了【添付エラー通知】＞ サンプルロボット_テスト実行 on 【Machine】</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="17" customFormat="1" ht="24">
+      <c r="A61" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="29" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(D61,"＜ロボット名＞",★セル参照シート!$B$4),"＜環境サフィックス＞",★セル参照シート!$B$5)</f>
+        <v>＜★異常終了！【添付エラー通知】＞ サンプルロボット_テスト実行 on 【Machine】</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="17" customFormat="1" ht="54">
+      <c r="A62" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="17" customFormat="1" ht="81">
+      <c r="A63" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+    </row>
+    <row r="66" spans="1:3" s="17" customFormat="1" ht="27">
+      <c r="A66" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="17" customFormat="1" ht="27">
+      <c r="A67" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="17" customFormat="1" ht="40.5">
+      <c r="A68" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="20">
+        <v>1</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="17" customFormat="1" ht="67.5">
+      <c r="A69" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="2" customFormat="1" ht="14.25" customHeight="1"/>
+    <row r="71" spans="1:3" s="8" customFormat="1" ht="13.5">
+      <c r="A71" s="11"/>
+      <c r="B71" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A34" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-    </row>
-    <row r="36" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A36" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A37" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A38" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A39" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A40" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A41" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A42" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A43" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="18" customFormat="1" ht="54">
-      <c r="A44" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="18" customFormat="1" ht="67.5">
-      <c r="A45" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A46" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A47" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A48" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A49" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A50" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="18" customFormat="1" ht="13.5">
-      <c r="A51" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="2" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="53" spans="1:3" s="8" customFormat="1" ht="13.5">
-      <c r="A53" s="11"/>
-      <c r="B53" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C53" s="11"/>
-    </row>
-    <row r="54" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="55" spans="1:3" s="8" customFormat="1" ht="13.5">
-      <c r="A55" s="11"/>
-      <c r="B55" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="11"/>
-    </row>
-    <row r="56" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="57" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="58" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="59" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="60" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="61" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="62" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="63" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="64" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
+      <c r="C71" s="11"/>
+    </row>
+    <row r="72" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="73" spans="1:3" s="8" customFormat="1" ht="13.5">
+      <c r="A73" s="11"/>
+      <c r="B73" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="11"/>
+    </row>
+    <row r="74" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="75" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="76" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="77" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="78" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="79" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="80" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="81" ht="14.25" customHeight="1"/>
     <row r="82" ht="14.25" customHeight="1"/>
     <row r="83" ht="14.25" customHeight="1"/>
@@ -3941,10 +5022,29 @@
     <row r="1038" ht="14.25" customHeight="1"/>
     <row r="1039" ht="14.25" customHeight="1"/>
     <row r="1040" ht="14.25" customHeight="1"/>
+    <row r="1041" ht="14.25" customHeight="1"/>
+    <row r="1042" ht="14.25" customHeight="1"/>
+    <row r="1043" ht="14.25" customHeight="1"/>
+    <row r="1044" ht="14.25" customHeight="1"/>
+    <row r="1045" ht="14.25" customHeight="1"/>
+    <row r="1046" ht="14.25" customHeight="1"/>
+    <row r="1047" ht="14.25" customHeight="1"/>
+    <row r="1048" ht="14.25" customHeight="1"/>
+    <row r="1049" ht="14.25" customHeight="1"/>
+    <row r="1050" ht="14.25" customHeight="1"/>
+    <row r="1051" ht="14.25" customHeight="1"/>
+    <row r="1052" ht="14.25" customHeight="1"/>
+    <row r="1053" ht="14.25" customHeight="1"/>
+    <row r="1054" ht="14.25" customHeight="1"/>
+    <row r="1055" ht="14.25" customHeight="1"/>
+    <row r="1056" ht="14.25" customHeight="1"/>
+    <row r="1057" ht="14.25" customHeight="1"/>
+    <row r="1058" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4001,38 +5101,38 @@
     <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B7" s="16" t="s">
-        <v>119</v>
+      <c r="B7" s="15" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" s="8" customFormat="1" ht="13.5">
       <c r="A9" s="11"/>
-      <c r="B9" s="16" t="s">
-        <v>73</v>
+      <c r="B9" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="C9" s="11"/>
     </row>
@@ -5110,18 +6210,18 @@
     <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:26" s="8" customFormat="1" ht="13.5">
       <c r="A3" s="11"/>
-      <c r="B3" s="16" t="s">
-        <v>73</v>
+      <c r="B3" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
@@ -6130,18 +7230,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="36" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.85546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="63.5703125" style="11" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="95.28515625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="55.42578125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="79.7109375" style="8" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" style="8" customWidth="1"/>
     <col min="27" max="16384" width="14.42578125" style="8"/>
   </cols>
   <sheetData>
@@ -6152,7 +7253,7 @@
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="37" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="7"/>
@@ -6180,117 +7281,258 @@
       <c r="Z1" s="7"/>
     </row>
     <row r="2" spans="1:26" ht="15">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:26" ht="15">
+      <c r="C3" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:26" ht="15">
+      <c r="C4" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:26" ht="15">
+      <c r="C5" s="21"/>
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" customFormat="1" ht="15">
+      <c r="A7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="29" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D7,"＜ロボット名＞",★セル参照シート!$B$4),"＜環境サフィックス＞",★セル参照シート!$B$5),"＜RPAワークフォルダ＞",★セル参照シート!$B$6)</f>
+        <v>%GetCurrentDirectory%\Data\サンプルRPAワーク\ExScreenshots</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="29" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D8,"＜ロボット名＞",★セル参照シート!$B$4),"＜環境サフィックス＞",★セル参照シート!$B$5),"＜RPAワークフォルダ＞",★セル参照シート!$B$6)</f>
+        <v>%GetCurrentDirectory%\Data\サンプルRPAワーク\Debug.txt</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="B10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D2"/>
-    </row>
-    <row r="3" spans="1:26" ht="15">
-      <c r="C3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3"/>
-    </row>
-    <row r="4" spans="1:26" ht="15">
-      <c r="C4" s="12"/>
-      <c r="D4"/>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="11" t="s">
+      <c r="B11" s="29" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D11,"＜ロボット名＞",★セル参照シート!$B$4),"＜環境サフィックス＞",★セル参照シート!$B$5),"＜RPAワークフォルダ＞",★セル参照シート!$B$6)</f>
+        <v>%GetCurrentDirectory%\Data\サンプルRPAワーク\PARAM\Credentials.xlsx</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="B13" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="20"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="28" t="str">
+        <f>★セル参照シート!$B$7</f>
+        <v>%GetCurrentDirectory%\Data\サンプルRPAワーク\プロセス実行毎アウトプット</v>
+      </c>
+      <c r="C14" s="21"/>
+    </row>
+    <row r="15" spans="1:26" s="17" customFormat="1" ht="81">
+      <c r="A15" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="28" t="str">
+        <f>★セル参照シート!$B$8</f>
+        <v>%GetCurrentDirectory%\Data\サンプルRPAワーク\プロセス実行毎アウトプット＿外部</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="C16" s="20"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="20"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" s="20"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="17" customFormat="1" ht="27">
+      <c r="A20" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="29" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D20,"＜ロボット名＞",★セル参照シート!$B$4),"＜環境サフィックス＞",★セル参照シート!$B$5),"＜RPAワークフォルダ＞",★セル参照シート!$B$6)</f>
+        <v>%GetCurrentDirectory%\Data\サンプルRPAワーク\PARAM\サンプルメール添付ファイル01.txt</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="17" customFormat="1" ht="27">
+      <c r="A21" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="29" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D21,"＜ロボット名＞",★セル参照シート!$B$4),"＜環境サフィックス＞",★セル参照シート!$B$5),"＜RPAワークフォルダ＞",★セル参照シート!$B$6)</f>
+        <v>%GetCurrentDirectory%\Data\サンプルRPAワーク\PARAM\サンプルメール添付ファイル02.txt</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="27">
+      <c r="A24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="29" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D24,"＜ロボット名＞",★セル参照シート!$B$4),"＜環境サフィックス＞",★セル参照シート!$B$5),"＜RPAワークフォルダ＞",★セル参照シート!$B$6)</f>
+        <v>%GetCurrentDirectory%\Data\サンプルRPAワーク\サンプル完了目印\完了目印_サンプルロボット_テスト実行_○正常終了.txt</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="27">
+      <c r="A25" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="29" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D25,"＜ロボット名＞",★セル参照シート!$B$4),"＜環境サフィックス＞",★セル参照シート!$B$5),"＜RPAワークフォルダ＞",★セル参照シート!$B$6)</f>
+        <v>%GetCurrentDirectory%\Data\サンプルRPAワーク\サンプル完了目印\完了目印_サンプルロボット_テスト実行_★異常終了.txt</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:4" ht="15">
+      <c r="B28"/>
+      <c r="C28" s="20"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="20"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="C30" s="20"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="29" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D31,"＜ロボット名＞",★セル参照シート!$B$4),"＜環境サフィックス＞",★セル参照シート!$B$5),"＜RPAワークフォルダ＞",★セル参照シート!$B$6)</f>
+        <v>%GetCurrentDirectory%\Data\サンプルRPAワーク\PARAM\Parameters_テスト実行.xlsx</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="27">
+      <c r="A32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" customFormat="1" ht="15">
-      <c r="A6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="B9" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="B12" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="C32" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="B15" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15">
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="B17" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="40.5">
-      <c r="A20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>77</v>
-      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="20"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
@@ -6305,7 +7547,7 @@
   <dimension ref="A1:Z985"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6354,10 +7596,10 @@
     <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -7348,4 +8590,136 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="79.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="8" customFormat="1" ht="13.5">
+      <c r="A3" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.5">
+      <c r="A8" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27">
+      <c r="A9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="18"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="18"/>
+    </row>
+    <row r="17" spans="1:3" s="8" customFormat="1" ht="13.5">
+      <c r="A17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/勝又自作Attended_Framework_拡張v1/Data/Config.xlsx
+++ b/勝又自作Attended_Framework_拡張v1/Data/Config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="208">
   <si>
     <t>Name</t>
   </si>
@@ -2220,6 +2220,22 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>EndSmtpSend_添付パス00</t>
+    <rPh sb="12" eb="14">
+      <t>テンプ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>OptFuncオプション機能＜SMTPメール＞設定値。
+(v20220423 Release)
+※"EndSmtpSend_添付パス00" は "EndProcess.xaml" のデフォルトUOC「フォルダ圧縮＆メール添付設定」で予約。</t>
+    <rPh sb="116" eb="118">
+      <t>ヨヤク</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -3187,7 +3203,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3312,8 +3328,8 @@
   <dimension ref="A1:Z1058"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7230,10 +7246,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="13.5"/>
@@ -7411,128 +7427,138 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="17" customFormat="1" ht="27">
+    <row r="20" spans="1:4" s="17" customFormat="1" ht="54">
       <c r="A20" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="29" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D20,"＜ロボット名＞",★セル参照シート!$B$4),"＜環境サフィックス＞",★セル参照シート!$B$5),"＜RPAワークフォルダ＞",★セル参照シート!$B$6)</f>
-        <v>%GetCurrentDirectory%\Data\サンプルRPAワーク\PARAM\サンプルメール添付ファイル01.txt</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B20" s="11"/>
       <c r="C20" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>168</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" s="17" customFormat="1" ht="27">
       <c r="A21" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B21" s="29" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D21,"＜ロボット名＞",★セル参照シート!$B$4),"＜環境サフィックス＞",★セル参照シート!$B$5),"＜RPAワークフォルダ＞",★セル参照シート!$B$6)</f>
-        <v>%GetCurrentDirectory%\Data\サンプルRPAワーク\PARAM\サンプルメール添付ファイル02.txt</v>
+        <v>%GetCurrentDirectory%\Data\サンプルRPAワーク\PARAM\サンプルメール添付ファイル01.txt</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>197</v>
       </c>
       <c r="D21" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="17" customFormat="1" ht="27">
+      <c r="A22" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="29" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D22,"＜ロボット名＞",★セル参照シート!$B$4),"＜環境サフィックス＞",★セル参照シート!$B$5),"＜RPAワークフォルダ＞",★セル参照シート!$B$6)</f>
+        <v>%GetCurrentDirectory%\Data\サンプルRPAワーク\PARAM\サンプルメール添付ファイル02.txt</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="C22" s="20"/>
-    </row>
     <row r="23" spans="1:4">
-      <c r="B23" s="15" t="s">
+      <c r="C23" s="20"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C24" s="21" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="27">
-      <c r="A24" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B24" s="29" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D24,"＜ロボット名＞",★セル参照シート!$B$4),"＜環境サフィックス＞",★セル参照シート!$B$5),"＜RPAワークフォルダ＞",★セル参照シート!$B$6)</f>
-        <v>%GetCurrentDirectory%\Data\サンプルRPAワーク\サンプル完了目印\完了目印_サンプルロボット_テスト実行_○正常終了.txt</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="27">
       <c r="A25" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="29" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D25,"＜ロボット名＞",★セル参照シート!$B$4),"＜環境サフィックス＞",★セル参照シート!$B$5),"＜RPAワークフォルダ＞",★セル参照シート!$B$6)</f>
-        <v>%GetCurrentDirectory%\Data\サンプルRPAワーク\サンプル完了目印\完了目印_サンプルロボット_テスト実行_★異常終了.txt</v>
+        <v>%GetCurrentDirectory%\Data\サンプルRPAワーク\サンプル完了目印\完了目印_サンプルロボット_テスト実行_○正常終了.txt</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>198</v>
       </c>
       <c r="D25" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="27">
+      <c r="A26" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="29" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D26,"＜ロボット名＞",★セル参照シート!$B$4),"＜環境サフィックス＞",★セル参照シート!$B$5),"＜RPAワークフォルダ＞",★セル参照シート!$B$6)</f>
+        <v>%GetCurrentDirectory%\Data\サンプルRPAワーク\サンプル完了目印\完了目印_サンプルロボット_テスト実行_★異常終了.txt</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="C26" s="20"/>
-    </row>
     <row r="27" spans="1:4">
-      <c r="B27" s="15" t="s">
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="20"/>
-    </row>
-    <row r="28" spans="1:4" ht="15">
-      <c r="B28"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:4">
-      <c r="B29" s="15" t="s">
+    <row r="29" spans="1:4" ht="15">
+      <c r="B29"/>
+      <c r="C29" s="20"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="20"/>
-    </row>
-    <row r="30" spans="1:4">
       <c r="C30" s="20"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="11" t="s">
+      <c r="C31" s="20"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="29" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D31,"＜ロボット名＞",★セル参照シート!$B$4),"＜環境サフィックス＞",★セル参照シート!$B$5),"＜RPAワークフォルダ＞",★セル参照シート!$B$6)</f>
+      <c r="B32" s="29" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D32,"＜ロボット名＞",★セル参照シート!$B$4),"＜環境サフィックス＞",★セル参照シート!$B$5),"＜RPAワークフォルダ＞",★セル参照シート!$B$6)</f>
         <v>%GetCurrentDirectory%\Data\サンプルRPAワーク\PARAM\Parameters_テスト実行.xlsx</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="18" t="s">
+      <c r="C32" s="21"/>
+      <c r="D32" s="18" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="27">
-      <c r="A32" s="11" t="s">
+    <row r="33" spans="1:3" ht="27">
+      <c r="A33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B33" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C33" s="21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="20"/>
-    </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="1:3">
       <c r="C34" s="20"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="C35" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
@@ -8597,7 +8623,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
